--- a/test/list/cisaga/mekarmukti/list_mekarmukti_1.xlsx
+++ b/test/list/cisaga/mekarmukti/list_mekarmukti_1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="497">
   <si>
     <t>NO</t>
   </si>
@@ -41,1225 +41,1471 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>2024-04-01</t>
-  </si>
-  <si>
-    <t>GHINA SHOFWATUL INAYAH</t>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>HENNI APRILIANI</t>
   </si>
   <si>
     <t>Sembungjaya</t>
   </si>
   <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Mekarmukti</t>
+  </si>
+  <si>
+    <t>Kurangnya jalan alternatif untuk mengurangi kepadatan lalu lintas di ruas jalan utama.</t>
+  </si>
+  <si>
+    <t>ARIPKI AHMAD ZAELANI</t>
+  </si>
+  <si>
+    <t>Batununggul</t>
+  </si>
+  <si>
     <t>007</t>
   </si>
   <si>
+    <t>Keamanan di wilayah kami juga perlu diperhatikan. Terjadi peningkatan kasus kriminalitas dan kami merasa perlu adanya peningkatan patroli keamanan.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFKHA PATHURROHMAN</t>
+  </si>
+  <si>
+    <t>Cisagakolot</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Akses modal yang sulit bagi usaha kecil dan menengah membuat mereka kesulitan untuk berkembang dan bersaing dengan perusahaan besar.</t>
+  </si>
+  <si>
+    <t>PARID MUDOPAR</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Maraknya kekerasan dan kriminalitas, menciptakan rasa takut dan tidak aman di lingkungan sekitar.</t>
+  </si>
+  <si>
+    <t>ERIAN NURROIHAN</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
     <t>001</t>
   </si>
   <si>
-    <t>Mekarmukti</t>
+    <t>Kualitas pendidikan yang tidak merata membuat anak-anak di daerah terpencil sulit bersaing dengan anak-anak di kota besar dalam dunia kerja.</t>
+  </si>
+  <si>
+    <t>ELIS</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Pendidikan yang terbatas, sulit untuk mendapatkan akses pendidikan berkualitas.</t>
+  </si>
+  <si>
+    <t>NABILA AINI MUMTAZ</t>
+  </si>
+  <si>
+    <t>Masalah kekerasan dalam rumah tangga, merusak hubungan interpersonal dan kesejahteraan keluarga.</t>
+  </si>
+  <si>
+    <t>FARHANUDIN</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Kurangnya investasi dalam sektor pendidikan membuat banyak sekolah kekurangan fasilitas dan tenaga pengajar berkualitas, mempengaruhi mutu pendidikan.</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>MUMUN MUNAWAROH</t>
+  </si>
+  <si>
+    <t>Kurangnya tempat pembuangan sampah, mengakibatkan pencemaran lingkungan.</t>
+  </si>
+  <si>
+    <t>QEISYA LATIFA ADZANA</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Perlunya program pembangunan infrastruktur ramah lingkungan seperti jalur sepeda dan trotoar pejalan kaki.</t>
+  </si>
+  <si>
+    <t>IZHA NUSA PRATIWI</t>
+  </si>
+  <si>
+    <t>Budaya lokal kami, meskipun kaya, terkadang terabaikan. Kami ingin melihat lebih banyak acara budaya dan festival untuk mempromosikan keunikan kami.</t>
+  </si>
+  <si>
+    <t>ANANG HASANUDIN</t>
+  </si>
+  <si>
+    <t>Program rehabilitasi dan perawatan bagi kaum tunawisma perlu ditingkatkan untuk membantu mereka mendapatkan kembali stabilitas hidup.</t>
+  </si>
+  <si>
+    <t>YUSEP</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap layanan kesehatan yang terjangkau membuat banyak warga harus mengorbankan kesehatan mereka karena tidak mampu membayar biaya berobat.</t>
+  </si>
+  <si>
+    <t>SUTIMI</t>
+  </si>
+  <si>
+    <t>Kami berharap adanya program untuk mengatasi masalah perumahan yang layak bagi warga yang kurang mampu.</t>
+  </si>
+  <si>
+    <t>SALSA NUR AMELIA</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program pelatihan kerja bagi warga dewasa yang ingin meningkatkan keterampilan dan mencari pekerjaan.</t>
+  </si>
+  <si>
+    <t>INENG S</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Kurangnya penerangan jalan yang memadai, meningkatkan risiko kecelakaan di malam hari.</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>MUHAMMAD NIZAM</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap internet dan teknologi informasi di daerah terpencil membatasi peluang pendidikan dan ekonomi bagi warga di sana.</t>
+  </si>
+  <si>
+    <t>AMAS SAPUTRA PRATAMA</t>
+  </si>
+  <si>
+    <t>Upah minimum rendah, sulit untuk hidup layak bagi warga.</t>
+  </si>
+  <si>
+    <t>IKMAN</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program pencegahan kekerasan dalam rumah tangga dan perlindungan bagi korban.</t>
+  </si>
+  <si>
+    <t>UUNG FATHUROHMAN</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Layanan telekomunikasi yang tidak memadai, membatasi akses informasi dan kesempatan ekonomi.</t>
+  </si>
+  <si>
+    <t>DUROTUL FATIMAH</t>
+  </si>
+  <si>
+    <t>Kami perlu dukungan lebih lanjut dalam mengembangkan potensi pariwisata lokal. Ini dapat membantu meningkatkan ekonomi dan mengangkat citra wilayah kami.</t>
+  </si>
+  <si>
+    <t>PATAH</t>
+  </si>
+  <si>
+    <t>Peningkatan pengelolaan limbah medis untuk menghindari risiko pencemaran lingkungan.</t>
+  </si>
+  <si>
+    <t>SAFA AYATUL HUSNA</t>
+  </si>
+  <si>
+    <t>Program penghijauan atap bangunan untuk mengurangi efek pemanasan kota.</t>
+  </si>
+  <si>
+    <t>EMAH</t>
+  </si>
+  <si>
+    <t>Perlindungan lingkungan hidup harus menjadi prioritas utama. Kami membutuhkan langkah-langkah untuk melindungi habitat alami dan keanekaragaman hayati.</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>OJO</t>
+  </si>
+  <si>
+    <t>Kurangnya akses terhadap air bersih di beberapa daerah menyebabkan masalah kesehatan yang serius dan mempengaruhi produktivitas masyarakat.</t>
+  </si>
+  <si>
+    <t>RAHMA YANTI</t>
+  </si>
+  <si>
+    <t>Fluktuasi nilai tukar mata uang yang tidak stabil menyebabkan harga barang impor menjadi mahal, menambah beban masyarakat yang bergantung pada barang tersebut.</t>
+  </si>
+  <si>
+    <t>ISMIYANTI</t>
+  </si>
+  <si>
+    <t>Banjir sering terjadi, merusak tanaman dan infrastruktur kami.</t>
+  </si>
+  <si>
+    <t>ARSYLLA LUVITA MANDALA</t>
+  </si>
+  <si>
+    <t>Program pengentasan kemiskinan harus difokuskan pada membantu keluarga yang masih hidup di bawah garis kemiskinan.</t>
+  </si>
+  <si>
+    <t>SITI UMROH</t>
+  </si>
+  <si>
+    <t>Peningkatan keamanan transportasi umum akan memberikan kenyamanan bagi warga yang bergantung pada transportasi publik.</t>
+  </si>
+  <si>
+    <t>IRAH</t>
+  </si>
+  <si>
+    <t>Kurangnya kesadaran akan isu-isu sosial, menghambat upaya pembangunan masyarakat yang inklusif.</t>
+  </si>
+  <si>
+    <t>ANIS NURNANINGSIH</t>
+  </si>
+  <si>
+    <t>Tingginya angka kemiskinan di daerah pesisir menunjukkan masih banyaknya warga yang bergantung pada sektor perikanan yang rentan terhadap perubahan iklim.</t>
+  </si>
+  <si>
+    <t>NAZWA RANIA NUR ROHIM</t>
+  </si>
+  <si>
+    <t>Kami berharap ada program bantuan bagi keluarga yang terkena dampak bencana alam untuk memulihkan kehidupan mereka.</t>
+  </si>
+  <si>
+    <t>2024-05-05</t>
+  </si>
+  <si>
+    <t>YULI HERNAWATI</t>
+  </si>
+  <si>
+    <t>Jembatan yang tidak terawat, mengancam keselamatan transportasi dan mengisolasi wilayah.</t>
+  </si>
+  <si>
+    <t>MARJUK</t>
+  </si>
+  <si>
+    <t>Program pelatihan keamanan siber untuk meningkatkan kesadaran tentang ancaman di dunia digital.</t>
+  </si>
+  <si>
+    <t>ALWY MUIZ ABDURAHMAN</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program konservasi satwa liar di wilayah alam sekitar kami.</t>
+  </si>
+  <si>
+    <t>ELA HARLINA</t>
+  </si>
+  <si>
+    <t>Banyaknya kasus kekerasan dalam rumah tangga yang tidak tertangani menunjukkan masalah sosial yang kompleks akibat tekanan ekonomi dan minimnya pendidikan.</t>
+  </si>
+  <si>
+    <t>MEMED</t>
+  </si>
+  <si>
+    <t>Ketidakstabilan harga bahan bakar minyak membuat biaya transportasi naik, mengurangi daya beli masyarakat terutama yang bergantung pada angkutan umum.</t>
+  </si>
+  <si>
+    <t>ENENG TETI SUPRIANTI</t>
+  </si>
+  <si>
+    <t>Penyediaan ruang terbuka hijau di perkotaan akan meningkatkan kualitas hidup dan kesejahteraan warga.</t>
+  </si>
+  <si>
+    <t>NURUL ANISA</t>
+  </si>
+  <si>
+    <t>Kekurangan dokter dan tenaga medis, menghambat pelayanan kesehatan.</t>
+  </si>
+  <si>
+    <t>TARSO</t>
+  </si>
+  <si>
+    <t>Permasalahan budaya juga menjadi concern. Pentingnya pelestarian budaya lokal harus diimbangi dengan upaya perlindungan terhadap kearifan lokal yang terus terancam.</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>OYOM</t>
+  </si>
+  <si>
+    <t>Tingkat inflasi yang tinggi membuat nilai uang semakin menurun, mengurangi daya beli masyarakat dan memperburuk kondisi ekonomi mereka.</t>
+  </si>
+  <si>
+    <t>DENI JAELANI</t>
+  </si>
+  <si>
+    <t>Tingginya tingkat perceraian dan konflik rumah tangga, mempengaruhi stabilitas sosial di pedesaan.</t>
+  </si>
+  <si>
+    <t>DINAR RUSMANA</t>
+  </si>
+  <si>
+    <t>Inisiatif peningkatan kebersihan lingkungan sekitar sekolah untuk menciptakan lingkungan pembelajaran yang baik.</t>
+  </si>
+  <si>
+    <t>ENUR NURAENI</t>
+  </si>
+  <si>
+    <t>Kurangnya perawatan rutin, membuat jalan semakin buruk.</t>
+  </si>
+  <si>
+    <t>UTIMAH</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada sektor pertanian tradisional yang tidak produktif menyebabkan pendapatan petani rendah dan tidak stabil, menghambat perkembangan ekonomi desa.</t>
+  </si>
+  <si>
+    <t>SUMARNI</t>
+  </si>
+  <si>
+    <t>Kualitas jaringan telekomunikasi rendah, menghambat akses informasi dan pertumbuhan ekonomi.</t>
+  </si>
+  <si>
+    <t>KALIWON</t>
+  </si>
+  <si>
+    <t>Keterbatasan aksesibilitas bagi penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>TOPIKUROHMAN</t>
+  </si>
+  <si>
+    <t>Kami mendukung inisiatif untuk menciptakan ruang publik yang aman dan bersih bagi anak-anak dan keluarga.</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>REPINA WULANDARI</t>
+  </si>
+  <si>
+    <t>Pemberdayaan anak muda melalui program pelatihan kewirausahaan akan menciptakan generasi yang kreatif dan mandiri.</t>
+  </si>
+  <si>
+    <t>ENOK CUCU MAELASARI</t>
+  </si>
+  <si>
+    <t>Kekurangan listrik di beberapa daerah terpencil menghambat aktivitas ekonomi dan keseharian warga, menurunkan kualitas hidup dan produktivitas mereka.</t>
+  </si>
+  <si>
+    <t>SITI JUJU JULAEHA</t>
+  </si>
+  <si>
+    <t>Peningkatan infrastruktur untuk mendukung pengembangan industri kecil dan menengah lokal.</t>
+  </si>
+  <si>
+    <t>RAHMAWATI</t>
+  </si>
+  <si>
+    <t>Peningkatan layanan transportasi umum untuk mengurangi kemacetan dan emisi gas rumah kaca.</t>
+  </si>
+  <si>
+    <t>DIAR MAULANA AKBAR</t>
+  </si>
+  <si>
+    <t>Keterbatasan transportasi umum, mempersulit mobilitas penduduk terutama dalam mencari pekerjaan dan pendidikan.</t>
+  </si>
+  <si>
+    <t>SOPIATUL UYUN</t>
+  </si>
+  <si>
+    <t>Ketersediaan air bersih yang minim, meningkatkan risiko penyakit.</t>
+  </si>
+  <si>
+    <t>DARMI RATNASARI</t>
+  </si>
+  <si>
+    <t>Krisis air bersih di beberapa daerah menyebabkan banyak warga kesulitan mendapatkan air untuk kebutuhan sehari-hari, mempengaruhi kesehatan dan produktivitas.</t>
+  </si>
+  <si>
+    <t>JERIANSYAH</t>
+  </si>
+  <si>
+    <t>Kami berharap adanya program perbaikan dan pemeliharaan sarana olahraga yang sudah ada di wilayah kami.</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>ARIS SAYIDUL HILMI</t>
+  </si>
+  <si>
+    <t>Disparitas ekonomi antara wilayah barat dan timur Indonesia menyebabkan ketidakmerataan pembangunan dan kesenjangan kesejahteraan yang mencolok.</t>
+  </si>
+  <si>
+    <t>ROKASIH</t>
+  </si>
+  <si>
+    <t>Infrastruktur pendidikan yang minim di daerah terpencil membuat kualitas pendidikan rendah dan anak-anak sulit bersaing di tingkat nasional.</t>
+  </si>
+  <si>
+    <t>NUNU WIJAYA</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada sektor informal menyebabkan banyak pekerja tidak memiliki jaminan sosial atau keamanan kerja, membuat mereka rentan terhadap krisis ekonomi.</t>
+  </si>
+  <si>
+    <t>KARTISAH</t>
+  </si>
+  <si>
+    <t>Perlunya fasilitas pusat kebugaran komunitas untuk meningkatkan kesadaran akan gaya hidup sehat.</t>
+  </si>
+  <si>
+    <t>SALSABILA LAILA JULIANTI PUTRI</t>
+  </si>
+  <si>
+    <t>Kami mendukung ide untuk membuat taman publik sebagai tempat rekreasi dan pertemuan sosial bagi warga.</t>
+  </si>
+  <si>
+    <t>PUTRI INDRIANINGSIH</t>
+  </si>
+  <si>
+    <t>Pertumbuhan ekonomi yang tidak merata seringkali hanya dinikmati oleh segelintir elit, sementara sebagian besar masyarakat tetap hidup dalam kemiskinan.</t>
+  </si>
+  <si>
+    <t>RAYSA AMELIA PUTRI</t>
+  </si>
+  <si>
+    <t>Kurangnya penyeberangan pejalan kaki dan fasilitas untuk penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>M YUSUP</t>
+  </si>
+  <si>
+    <t>Kebersihan dan pengelolaan sampah perlu ditingkatkan. Program pengelolaan sampah yang baik akan menjaga keindahan lingkungan kami.</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>DODI ISKANDAR</t>
+  </si>
+  <si>
+    <t>Ketidakpastian hukum dalam dunia usaha membuat investor ragu untuk menanamkan modal, menghambat pertumbuhan ekonomi dan penciptaan lapangan kerja.</t>
+  </si>
+  <si>
+    <t>DEVIANA NOVIANTY</t>
+  </si>
+  <si>
+    <t>Program pengembangan kawasan industri kecil untuk mendukung pengusaha lokal.</t>
+  </si>
+  <si>
+    <t>TITI MULYATI</t>
+  </si>
+  <si>
+    <t>Tingkat korupsi yang tinggi dalam proyek infrastruktur menyebabkan pembangunan menjadi lambat dan hasilnya tidak maksimal, merugikan masyarakat.</t>
+  </si>
+  <si>
+    <t>LIA YULIA</t>
+  </si>
+  <si>
+    <t>Kekurangan tenaga medis di daerah terpencil membuat layanan kesehatan tidak optimal dan banyak warga tidak mendapatkan perawatan yang mereka butuhkan.</t>
+  </si>
+  <si>
+    <t>DAWISAH</t>
+  </si>
+  <si>
+    <t>Ketidakpastian hukum dalam dunia usaha membuat banyak pengusaha kecil dan menengah ragu untuk mengembangkan bisnis mereka lebih lanjut.</t>
+  </si>
+  <si>
+    <t>NANANG NURYANTO</t>
+  </si>
+  <si>
+    <t>Drainase yang buruk, menyebabkan banjir dan kerusakan infrastruktur saat musim hujan.</t>
+  </si>
+  <si>
+    <t>NOVIASARI</t>
+  </si>
+  <si>
+    <t>Upah minimum yang tidak cukup untuk menutupi biaya hidup di kota besar, menyebabkan banyak pekerja hidup dalam kondisi yang memprihatinkan.</t>
+  </si>
+  <si>
+    <t>DZIKRI NASIR MUBAROK</t>
+  </si>
+  <si>
+    <t>Isolasi sosial, membuat masyarakat pedesaan merasa terpinggirkan dari perkembangan sosial dan budaya.</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>AULIA VITRIYANI</t>
+  </si>
+  <si>
+    <t>Masalah gizi buruk yang masih tinggi di beberapa daerah menunjukkan kurangnya akses terhadap makanan bergizi dan pelayanan kesehatan yang memadai.</t>
+  </si>
+  <si>
+    <t>IUN</t>
+  </si>
+  <si>
+    <t>kendaraan umum yang sulit dijumpai di wilayah terpencil.</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan perempuan dalam bisnis dan kewirausahaan.</t>
+  </si>
+  <si>
+    <t>RIA PURNAMASARI</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program inklusivitas dan diversitas di tempat kerja untuk mendorong kesetaraan.</t>
+  </si>
+  <si>
+    <t>KAMILA KHOIRUN NAFISA</t>
+  </si>
+  <si>
+    <t>Inisiatif penanaman pohon dan pelestarian hutan untuk mengurangi dampak perubahan iklim.</t>
+  </si>
+  <si>
+    <t>MEGA YULIASARI</t>
+  </si>
+  <si>
+    <t>Kurangnya keamanan dan pemeliharaan keamanan, meningkatkan tingkat kejahatan di daerah kami.</t>
+  </si>
+  <si>
+    <t>AGUSNAWAN</t>
+  </si>
+  <si>
+    <t>Minimnya jalur sepeda membuat sulit bagi pengendara sepeda.</t>
+  </si>
+  <si>
+    <t>UKAR</t>
+  </si>
+  <si>
+    <t>Minimnya jaminan sosial untuk pekerja sektor informal menyebabkan mereka tidak memiliki perlindungan saat menghadapi situasi darurat atau pensiun.</t>
+  </si>
+  <si>
+    <t>2024-05-11</t>
+  </si>
+  <si>
+    <t>ZIANKA MAULANA PUTRA</t>
+  </si>
+  <si>
+    <t>Sosial di lingkungan kami juga butuh perhatian lebih. Banyak keluarga yang kesulitan memenuhi kebutuhan sehari-hari, terutama mereka yang kurang mampu.</t>
+  </si>
+  <si>
+    <t>NAZMA PUTRI RAHMADAN</t>
+  </si>
+  <si>
+    <t>Tidak ada jalur khusus transportasi umum, menyebabkan kemacetan.</t>
+  </si>
+  <si>
+    <t>RIFKI AUNUR RAHMAN WAHYUDI</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan masyarakat lokal dalam mengelola sumber daya alam untuk keberlanjutan lingkungan.</t>
+  </si>
+  <si>
+    <t>NURHALIMAH</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan gender yang masih ada dalam berbagai aspek kehidupan, termasuk di tempat kerja dan dalam lingkungan domestik.</t>
+  </si>
+  <si>
+    <t>UJANG JUHRO</t>
+  </si>
+  <si>
+    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, membatasi partisipasi mereka dalam kehidupan sosial dan ekonomi.</t>
+  </si>
+  <si>
+    <t>ESO</t>
+  </si>
+  <si>
+    <t>Sarana kesehatan di wilayah kami perlu ditingkatkan. Akses ke puskesmas dan layanan kesehatan harus lebih mudah dijangkau oleh masyarakat.</t>
+  </si>
+  <si>
+    <t>ROHIILAH</t>
+  </si>
+  <si>
+    <t>Dukungan bagi inisiatif pengembangan kawasan wisata alam yang indah di sekitar wilayah kami.</t>
+  </si>
+  <si>
+    <t>HARIS</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program peningkatan literasi finansial di kalangan masyarakat kami.</t>
+  </si>
+  <si>
+    <t>2024-05-12</t>
+  </si>
+  <si>
+    <t>REFAN PERMANA</t>
+  </si>
+  <si>
+    <t>Pendidikan tentang pentingnya pola makan sehat dan gaya hidup aktif harus diintensifkan untuk mengatasi masalah kesehatan masyarakat.</t>
+  </si>
+  <si>
+    <t>ARSYILA NUR ANNISA</t>
+  </si>
+  <si>
+    <t>Sosial di wilayah kami perlu diperhatikan, terutama bagi kaum lansia yang seringkali merasa terisolasi. Program sosial untuk menjaga kesejahteraan mereka sangat diharapkan.</t>
+  </si>
+  <si>
+    <t>ADE RAUP</t>
+  </si>
+  <si>
+    <t>Harga kebutuhan pokok naik terus, sulit untuk mencukupi kebutuhan sehari-hari.</t>
+  </si>
+  <si>
+    <t>IMAY SITI MAESAROH</t>
+  </si>
+  <si>
+    <t>Saya sebagai warga melaporkan permasalahan ekonomi di lingkungan kami. Banyak dari kami kesulitan mencari pekerjaan dan merasakan beban ekonomi yang berat.</t>
+  </si>
+  <si>
+    <t>FAJAR FUAD AL HASIMY</t>
+  </si>
+  <si>
+    <t>Dukungan bagi industri pertanian organik untuk meningkatkan kualitas dan keamanan makanan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>WASMA</t>
+  </si>
+  <si>
+    <t>Tidak adanya jaringan pengaman sosial yang memadai, menyebabkan kelompok rentan sulit mendapatkan dukungan saat menghadapi kesulitan.</t>
+  </si>
+  <si>
+    <t>DIOH</t>
+  </si>
+  <si>
+    <t>Kolaborasi antarwarga perlu ditingkatkan untuk membangun rasa solidaritas dan kebersamaan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>WIFI KURNIA RAMADHANI</t>
+  </si>
+  <si>
+    <t>Perlunya fasilitas ruang baca umum untuk menggalakkan minat membaca di kalangan anak-anak dan remaja.</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>ALDI MAULANA</t>
+  </si>
+  <si>
+    <t>Jalan rusak parah, mengganggu kelancaran lalu lintas dan merusak kendaraan.</t>
+  </si>
+  <si>
+    <t>JAAH</t>
+  </si>
+  <si>
+    <t>Layanan kesehatan yang kurang memadai, sulit untuk mendapatkan perawatan medis.</t>
+  </si>
+  <si>
+    <t>NURPUDIN</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program kreativitas seni untuk meningkatkan apresiasi seni di kalangan masyarakat.</t>
+  </si>
+  <si>
+    <t>H. YUNUS</t>
+  </si>
+  <si>
+    <t>Tingkat kemiskinan yang masih tinggi di berbagai daerah menunjukkan masih banyak warga yang hidup di bawah garis kemiskinan dan kesulitan memenuhi kebutuhan dasar.</t>
+  </si>
+  <si>
+    <t>FAREEQ GIBRAN RAMADHAN</t>
+  </si>
+  <si>
+    <t>Banyak masyarakat yang merasa khawatir karena harga pangan yang sering berfluktuasi dan sulit diprediksi.</t>
+  </si>
+  <si>
+    <t>SUKINI</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan mahal, sulit bagi keluarga kurang mampu.</t>
+  </si>
+  <si>
+    <t>CAHYADI</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya program peningkatan kesadaran akan pentingnya pelestarian lingkungan di sekolah-sekolah.</t>
+  </si>
+  <si>
+    <t>GILANG  PRATAMA</t>
+  </si>
+  <si>
+    <t>Parkir liar yang menghalangi akses jalan dan mengurangi ruang untuk kendaraan.</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>KURNIASIH</t>
+  </si>
+  <si>
+    <t>Ketergantungan pada komoditas ekspor tertentu membuat perekonomian Indonesia rentan terhadap fluktuasi harga di pasar internasional.</t>
+  </si>
+  <si>
+    <t>KOMI</t>
+  </si>
+  <si>
+    <t>Perlunya program pelatihan keterampilan soft skills untuk meningkatkan kemampuan interpersonal.</t>
+  </si>
+  <si>
+    <t>ROHIM</t>
+  </si>
+  <si>
+    <t>Isolasi dari layanan hiburan dan rekreasi, menyebabkan kebosanan dan kurangnya kegiatan positif.</t>
+  </si>
+  <si>
+    <t>SAHRUR RAMDANI</t>
+  </si>
+  <si>
+    <t>Peningkatan keamanan di area bermain anak-anak dan taman umum di malam hari.</t>
+  </si>
+  <si>
+    <t>KARYO</t>
+  </si>
+  <si>
+    <t>Tidak adanya jalur sepeda yang aman, menghambat pengembangan transportasi berkelanjutan.</t>
+  </si>
+  <si>
+    <t>LINA AGUS LINDA</t>
+  </si>
+  <si>
+    <t>Persaingan usaha tidak sehat, usaha kecil sulit bertahan.</t>
+  </si>
+  <si>
+    <t>ANDRA ADIYATAMA</t>
+  </si>
+  <si>
+    <t>Kesenjangan digital antara daerah perkotaan dan pedesaan menghambat pertumbuhan ekonomi yang inklusif dan merata di seluruh Indonesia.</t>
+  </si>
+  <si>
+    <t>HAYKAL PRATAMA ISMAIK</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan masyarakat untuk meningkatkan partisipasi dalam pengambilan keputusan komunitas.</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>IJA</t>
+  </si>
+  <si>
+    <t>Kualitas infrastruktur yang rendah di daerah terpencil membuat akses transportasi dan distribusi barang menjadi sulit dan mahal, mempengaruhi harga barang kebutuhan.</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FARIZ</t>
+  </si>
+  <si>
+    <t>Pembangunan trotoar yang tidak merata dan berbahaya.</t>
+  </si>
+  <si>
+    <t>YUSUP BAHTIAR</t>
+  </si>
+  <si>
+    <t>Pasokan air tidak terjamin, meningkatkan risiko kekurangan air bersih dan sanitasi yang buruk.</t>
+  </si>
+  <si>
+    <t>SUTINI</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program penyuluhan hukum untuk meningkatkan pemahaman masyarakat tentang hak dan kewajiban mereka.</t>
+  </si>
+  <si>
+    <t>ASYIFA HANI KHARISMAN</t>
+  </si>
+  <si>
+    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, menghalangi partisipasi mereka dalam kehidupan sosial dan ekonomi lokal.</t>
+  </si>
+  <si>
+    <t>MAE NURHAYATI</t>
+  </si>
+  <si>
+    <t>Pencemaran lingkungan yang semakin parah akibat aktivitas industri tidak terkendali merugikan kesehatan warga dan mengurangi kualitas hidup.</t>
+  </si>
+  <si>
+    <t>WASIH</t>
+  </si>
+  <si>
+    <t>Warga kami membutuhkan dukungan ekonomi untuk membuka usaha kecil-kecilan. Kami berharap ada program bantuan modal untuk meningkatkan perekonomian lokal.</t>
+  </si>
+  <si>
+    <t>IKA ROSTIKAWATI</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana transportasi umum, menyulitkan akses penduduk terhadap layanan penting.</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>LASWI</t>
+  </si>
+  <si>
+    <t>Dukungan bagi inisiatif pengembangan kawasan pedesaan untuk mendorong pertumbuhan ekonomi lokal.</t>
+  </si>
+  <si>
+    <t>ARUN FADILAH</t>
+  </si>
+  <si>
+    <t>Kurangnya program pelatihan keterampilan, membatasi kemajuan karier kami.</t>
+  </si>
+  <si>
+    <t>SUKIAH</t>
+  </si>
+  <si>
+    <t>Kami juga menghadapi masalah sosial, terutama terkait dengan kurangnya akses pendidikan di wilayah ini. Banyak anak-anak yang tidak bisa mengakses pendidikan yang layak.</t>
+  </si>
+  <si>
+    <t>AZZAHRA NORIZA ANDINI</t>
+  </si>
+  <si>
+    <t>Kami menghadapi tantangan ekonomi berat, terutama karena adanya dampak pandemi COVID-19. Banyak usaha kecil tutup, dan pengangguran meningkat.</t>
+  </si>
+  <si>
+    <t>AAY HERLIANA</t>
+  </si>
+  <si>
+    <t>Program pengelolaan air yang berkelanjutan untuk mengatasi masalah ketersediaan air di musim kemarau.</t>
+  </si>
+  <si>
+    <t>NADIA CHAERUNISA</t>
+  </si>
+  <si>
+    <t>Tidak adanya dukungan sosial bagi kaum lanjut usia, meningkatkan risiko kesepian dan ketergantungan.</t>
+  </si>
+  <si>
+    <t>PAJAR AL AJIS</t>
+  </si>
+  <si>
+    <t>Permasalahan kesejahteraan anak, seperti kurangnya nutrisi dan akses pendidikan yang memadai.</t>
+  </si>
+  <si>
+    <t>MUTI  MULIASARI</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana transportasi umum, membuat perjalanan menjadi sulit.</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>ANDI SUANDI</t>
+  </si>
+  <si>
+    <t>Tingkat pengangguran yang tinggi di daerah pedesaan membuat banyak warga harus merantau ke kota besar untuk mencari pekerjaan yang layak.</t>
+  </si>
+  <si>
+    <t>ADRIAN SAPUTRA</t>
+  </si>
+  <si>
+    <t>Keamanan jalan di sekitar sekolah harus ditingkatkan. Kami merasa khawatir dengan keselamatan anak-anak kami saat pergi dan pulang sekolah.</t>
+  </si>
+  <si>
+    <t>TIAS MARISA</t>
+  </si>
+  <si>
+    <t>Program penyuluhan kesehatan mental untuk mengurangi stigma dan meningkatkan pemahaman masyarakat.</t>
+  </si>
+  <si>
+    <t>MUHAMAD HANDIKA AZKA</t>
+  </si>
+  <si>
+    <t>Peningkatan kualitas air sungai dan sungai di sekitar wilayah kami.</t>
+  </si>
+  <si>
+    <t>TARSIM</t>
+  </si>
+  <si>
+    <t>Keberlanjutan energi adalah hal penting bagi kami. Kami mendukung inisiatif untuk beralih ke sumber energi terbarukan.</t>
+  </si>
+  <si>
+    <t>ANNISA AZHAR FEBRIANA</t>
+  </si>
+  <si>
+    <t>Jaringan listrik tidak stabil, sering terjadi pemadaman listrik yang mengganggu aktivitas sehari-hari.</t>
+  </si>
+  <si>
+    <t>ENTIN</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan gender dalam partisipasi politik dan ekonomi, merugikan potensi masyarakat pedesaan secara keseluruhan.</t>
+  </si>
+  <si>
+    <t>KODIR</t>
+  </si>
+  <si>
+    <t>Ketersediaan listrik yang tidak konsisten, mengganggu aktivitas sehari-hari dan produktivitas usaha.</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
+  </si>
+  <si>
+    <t>HERNIAWATI</t>
+  </si>
+  <si>
+    <t>Tidak ada tempat penampungan untuk hewan jalanan di jalan.</t>
+  </si>
+  <si>
+    <t>AXCELLO MAHARDHIKA PURWANTO</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan petani lokal dalam beralih ke praktik pertanian organik.</t>
+  </si>
+  <si>
+    <t>INA PURNAMA SARI</t>
+  </si>
+  <si>
+    <t>Peningkatan aksesibilitas fasilitas publik bagi penyandang disabilitas.</t>
+  </si>
+  <si>
+    <t>RAISYA RAHMA MULYA</t>
+  </si>
+  <si>
+    <t>Permasalahan ketergantungan obat-obatan terlarang, merusak kesehatan dan stabilitas sosial di pedesaan.</t>
+  </si>
+  <si>
+    <t>SOPIAH</t>
+  </si>
+  <si>
+    <t>Disparitas upah antara laki-laki dan perempuan menunjukkan ketidakadilan gender dalam pasar kerja yang perlu segera diatasi.</t>
+  </si>
+  <si>
+    <t>Birokrasi perizinan usaha sulit dan memakan waktu.</t>
+  </si>
+  <si>
+    <t>ANTON IRAWAN</t>
+  </si>
+  <si>
+    <t>Peningkatan infrastruktur telekomunikasi akan memastikan akses internet yang cepat dan andal bagi semua warga.</t>
+  </si>
+  <si>
+    <t>SITI MILANI</t>
+  </si>
+  <si>
+    <t>Praktik kerja paksa yang masih terjadi di beberapa sektor menunjukkan lemahnya pengawasan dan penegakan hukum dalam perlindungan hak pekerja.</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
+  </si>
+  <si>
+    <t>ETI</t>
+  </si>
+  <si>
+    <t>Ketimpangan sosial dan ekonomi semakin besar, kesenjangan kaya-miskin.</t>
+  </si>
+  <si>
+    <t>AMIR HAMZAH</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap teknologi dan informasi, memperlebar kesenjangan digital dan sosial.</t>
+  </si>
+  <si>
+    <t>ANDA</t>
+  </si>
+  <si>
+    <t>Perluasan program pemberdayaan petani kecil akan membantu meningkatkan produksi pangan lokal.</t>
+  </si>
+  <si>
+    <t>DINDIN NURDIN</t>
+  </si>
+  <si>
+    <t>Infrastruktur jalan rusak, sulit bagi kami untuk mengakses kota terdekat.</t>
+  </si>
+  <si>
+    <t>HALIM PERDNA KUSUMAH</t>
+  </si>
+  <si>
+    <t>Inisiatif untuk mengurangi penggunaan plastik sekali pakai dan menggantinya dengan alternatif ramah lingkungan.</t>
+  </si>
+  <si>
+    <t>NABILA YULIA SAVANA</t>
+  </si>
+  <si>
+    <t>Dukungan bagi program rehabilitasi bagi mantan narapidana untuk memfasilitasi reintegrasi sosial.</t>
+  </si>
+  <si>
+    <t>LISA AMANATUSSALASAH</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap layanan sosial, memperburuk kondisi kesejahteraan sosial masyarakat pedesaan.</t>
+  </si>
+  <si>
+    <t>ELY SUSANTI</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses ke bank dan layanan keuangan, menghambat pertumbuhan ekonomi.</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>MARLINA</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan generasi muda melalui kegiatan seni dan budaya.</t>
+  </si>
+  <si>
+    <t>UUM UMYATI</t>
+  </si>
+  <si>
+    <t>Kondisi jembatan yang memburuk, mengancam keselamatan transportasi dan konektivitas antarwilayah.</t>
+  </si>
+  <si>
+    <t>ATUN</t>
+  </si>
+  <si>
+    <t>Dukungan untuk pengembangan pertanian lokal akan membantu memperkuat ketahanan pangan komunitas kami.</t>
+  </si>
+  <si>
+    <t>KIANA AYUNINDYA</t>
+  </si>
+  <si>
+    <t>Kurangnya perhatian pemerintah terhadap infrastruktur pedesaan, menyebabkan kemunduran.</t>
+  </si>
+  <si>
+    <t>WATI</t>
+  </si>
+  <si>
+    <t>Biaya kesehatan yang mahal menyebabkan banyak keluarga kesulitan membayar pengobatan, terutama untuk penyakit kronis yang memerlukan perawatan jangka panjang.</t>
+  </si>
+  <si>
+    <t>TETI</t>
+  </si>
+  <si>
+    <t>Pasokan air yang tidak stabil, meningkatkan risiko krisis kesehatan dan kebersihan di masyarakat.</t>
+  </si>
+  <si>
+    <t>SURYAMAH</t>
+  </si>
+  <si>
+    <t>Dukungan pemerintah untuk pengembangan seni dan kreativitas lokal akan sangat diapresiasi. Inisiatif ini dapat memberikan peluang baru bagi para seniman dan budayawan.</t>
+  </si>
+  <si>
+    <t>RUNISAH</t>
+  </si>
+  <si>
+    <t>Peningkatan ketersediaan fasilitas olahraga untuk mendukung gaya hidup aktif masyarakat.</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
+  </si>
+  <si>
+    <t>EYO YAHYA</t>
+  </si>
+  <si>
+    <t>Akses terhadap layanan kesehatan mental yang minim menyebabkan banyak warga yang mengalami masalah psikologis tidak mendapatkan bantuan yang mereka butuhkan.</t>
+  </si>
+  <si>
+    <t>TOLIB</t>
+  </si>
+  <si>
+    <t>Kebutuhan perluasan jalan tidak terpenuhi, menyebabkan kemacetan terus bertambah.</t>
+  </si>
+  <si>
+    <t>ROHIMAT</t>
+  </si>
+  <si>
+    <t>Program penghijauan kota dapat memberikan manfaat jangka panjang bagi kesehatan dan keindahan lingkungan kami.</t>
+  </si>
+  <si>
+    <t>JUHAIRIAH</t>
+  </si>
+  <si>
+    <t>Diskriminasi terhadap minoritas etnis, menyebabkan ketidakadilan dan ketegangan sosial di masyarakat.</t>
+  </si>
+  <si>
+    <t>YUMNA SALSABILA</t>
+  </si>
+  <si>
+    <t>Kemacetan lalu lintas di kota besar menyebabkan banyak warga kehilangan waktu produktif dan meningkatkan biaya transportasi harian.</t>
+  </si>
+  <si>
+    <t>EKA WATI</t>
+  </si>
+  <si>
+    <t>Program pelatihan untuk mengembangkan keterampilan teknologi bagi warga lanjut usia.</t>
+  </si>
+  <si>
+    <t>JEJEN JENI</t>
+  </si>
+  <si>
+    <t>Kami mendukung inisiatif untuk melestarikan warisan arsitektur dan bangunan bersejarah di wilayah kami.</t>
+  </si>
+  <si>
+    <t>IRUN RUNTINI</t>
+  </si>
+  <si>
+    <t>Pembangunan yang tidak merata membuat banyak desa tertinggal dalam hal infrastruktur, layanan kesehatan, dan pendidikan, memperparah ketimpangan sosial.</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>ADIT RIANA</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses ke pasar, sulit untuk menjual hasil pertanian kami.</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan kerja, menyebabkan tingginya tingkat pengangguran di pedesaan.</t>
+  </si>
+  <si>
+    <t>DEA MAULIDA</t>
+  </si>
+  <si>
+    <t>Peningkatan aksesibilitas transportasi bagi penyandang disabilitas akan membantu memastikan inklusivitas masyarakat kami.</t>
+  </si>
+  <si>
+    <t>ALVIN SAKHI ZAIDAN</t>
+  </si>
+  <si>
+    <t>Program pengembangan keterampilan teknologi informasi harus tersedia untuk semua lapisan masyarakat.</t>
+  </si>
+  <si>
+    <t>TAMIM</t>
+  </si>
+  <si>
+    <t>Tingkat kejahatan yang tinggi di beberapa daerah merupakan cerminan dari masalah ekonomi dan sosial yang belum terselesaikan, seperti pengangguran dan kemiskinan.</t>
+  </si>
+  <si>
+    <t>DEWI</t>
+  </si>
+  <si>
+    <t>Kualitas jalan pedesaan yang buruk, membatasi akses petani ke pasar dan meningkatkan biaya transportasi.</t>
+  </si>
+  <si>
+    <t>NURUL AENUNAFIAH</t>
+  </si>
+  <si>
+    <t>Kurangnya rambu lalu lintas yang jelas dan terawat, membingungkan pengguna jalan.</t>
+  </si>
+  <si>
+    <t>ENDU</t>
+  </si>
+  <si>
+    <t>Budaya lokal harus lebih dipromosikan agar tidak hilang. Kami ingin melihat kegiatan budaya lebih sering diadakan untuk mempertahankan warisan nenek moyang kami.</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>NURBAYAH</t>
+  </si>
+  <si>
+    <t>Minimnya tempat parkir untuk kendaraan umum di tempat kami.</t>
+  </si>
+  <si>
+    <t>ANI YATI HIDAYAT</t>
+  </si>
+  <si>
+    <t>Kondisi jalan pedesaan yang buruk, menghambat distribusi barang dan pertumbuhan sektor pertanian.</t>
+  </si>
+  <si>
+    <t>ALDI ALAN NURROHMAT</t>
+  </si>
+  <si>
+    <t>Sistem pendidikan yang tidak merata dan kurang berkualitas, menghambat kemajuan sosial dan ekonomi bagi sebagian masyarakat.</t>
+  </si>
+  <si>
+    <t>Kurangnya trotoar yang aman, mengancam keselamatan pejalan kaki.</t>
+  </si>
+  <si>
+    <t>ADE JIAN NURUL PAUJAN</t>
+  </si>
+  <si>
+    <t>Krisis pangan yang terjadi akibat perubahan iklim dan gagal panen membuat banyak petani kehilangan pendapatan dan masyarakat mengalami kelangkaan pangan.</t>
+  </si>
+  <si>
+    <t>AILA VARISA NAPISAH</t>
+  </si>
+  <si>
+    <t>Keterbatasan akses terhadap layanan kesehatan berkualitas, membuat banyak orang kesulitan mendapatkan perawatan yang dibutuhkan.</t>
+  </si>
+  <si>
+    <t>EMBUN</t>
+  </si>
+  <si>
+    <t>Perlunya program pendidikan mengenai dampak perubahan iklim dan upaya mitigasi.</t>
+  </si>
+  <si>
+    <t>AHMAD MAWARDI</t>
+  </si>
+  <si>
+    <t>Peningkatan pelayanan kesehatan mental di wilayah kami, termasuk akses ke konseling.</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>Biaya transportasi yang tinggi untuk distribusi barang ke daerah terpencil menyebabkan harga kebutuhan pokok di daerah tersebut jauh lebih mahal.</t>
+  </si>
+  <si>
+    <t>RIAN LESMANA</t>
+  </si>
+  <si>
+    <t>Lapangan kerja yang tersedia seringkali tidak sesuai dengan kualifikasi pendidikan sehingga banyak lulusan universitas menganggur atau bekerja tidak sesuai bidangnya.</t>
+  </si>
+  <si>
+    <t>ETI NURHAYATI</t>
+  </si>
+  <si>
+    <t>Program edukasi tentang bahaya narkoba dan cara mencegahnya harus diperkenalkan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>ABDULAH</t>
+  </si>
+  <si>
+    <t>Dukungan untuk industri kreatif lokal, seperti kerajinan tangan dan seni rupa, akan membantu meningkatkan perekonomian seniman lokal.</t>
+  </si>
+  <si>
+    <t>ENUNG NURALIAH</t>
+  </si>
+  <si>
+    <t>Fasilitas jalan yang tidak terpelihara dengan baik, menghambat pertumbuhan ekonomi dan aksesibilitas penduduk.</t>
+  </si>
+  <si>
+    <t>DENI KURNIAWAN</t>
+  </si>
+  <si>
+    <t>Tingkat perceraian yang tinggi di beberapa daerah terkait dengan tekanan ekonomi yang membuat kehidupan rumah tangga menjadi tidak harmonis.</t>
+  </si>
+  <si>
+    <t>KIKI MULYANA</t>
+  </si>
+  <si>
+    <t>Kurangnya sarana olahraga dan rekreasi, membuat generasi muda kurang aktif.</t>
+  </si>
+  <si>
+    <t>RISA TRI ANDINI</t>
+  </si>
+  <si>
+    <t>Tidak adanya fasilitas penyeberangan untuk hewan di jalan raya.</t>
+  </si>
+  <si>
+    <t>2024-05-25</t>
+  </si>
+  <si>
+    <t>AL MU'AD FAQIH MAHMUD</t>
+  </si>
+  <si>
+    <t>Kualitas jaringan telepon seluler buruk di beberapa area.</t>
+  </si>
+  <si>
+    <t>SALMAN AL-FARIZI</t>
+  </si>
+  <si>
+    <t>Program pemerintah yang tidak tepat sasaran dan birokrasi yang berbelit menyebabkan bantuan sosial sering kali tidak sampai kepada yang berhak.</t>
+  </si>
+  <si>
+    <t>AZIMA ASSHYLA RAHMA</t>
+  </si>
+  <si>
+    <t>Perubahan iklim yang tidak menentu membuat banyak petani mengalami gagal panen, mengurangi produksi pangan dan pendapatan mereka secara signifikan.</t>
+  </si>
+  <si>
+    <t>YATI NURHAYATI</t>
+  </si>
+  <si>
+    <t>Program bantuan sosial yang tidak merata dan sering kali salah sasaran membuat banyak warga yang benar-benar membutuhkan tidak mendapatkan bantuan.</t>
+  </si>
+  <si>
+    <t>ARJUNUS</t>
+  </si>
+  <si>
+    <t>Kurangnya lapangan pekerjaan di daerah menyebabkan banyak penduduk usia produktif menganggur atau terpaksa bekerja di sektor informal dengan penghasilan minim.</t>
+  </si>
+  <si>
+    <t>RIAN MAULANA YUSUF</t>
+  </si>
+  <si>
+    <t>Kendaraan parkir sembarangan di jalan, menyebabkan kemacetan dan kekacauan.</t>
+  </si>
+  <si>
+    <t>WAHYUDIN</t>
+  </si>
+  <si>
+    <t>Listrik sering mati, mengganggu kegiatan sehari-hari kami.</t>
+  </si>
+  <si>
+    <t>NUR FITRIANI</t>
+  </si>
+  <si>
+    <t>Kami mendukung adanya ruang kreatif untuk pertemuan masyarakat dan diskusi komunitas.</t>
+  </si>
+  <si>
+    <t>2024-05-26</t>
+  </si>
+  <si>
+    <t>SITI MAYA SARI</t>
+  </si>
+  <si>
+    <t>Banyak produk palsu, merugikan konsumen dan produsen asli.</t>
+  </si>
+  <si>
+    <t>DARUSALAM</t>
+  </si>
+  <si>
+    <t>Minimnya program pemerintah untuk pengembangan keterampilan kerja menyebabkan banyak tenaga kerja tidak memiliki kemampuan yang relevan dengan kebutuhan industri.</t>
+  </si>
+  <si>
+    <t>VIA SILVIA</t>
+  </si>
+  <si>
+    <t>Program pemberdayaan perempuan akan membantu meningkatkan peran mereka dalam pengambilan keputusan di komunitas kami.</t>
+  </si>
+  <si>
+    <t>MUMUN SITI MAEMUNAH</t>
+  </si>
+  <si>
+    <t>Ketidaksetaraan pendapatan dan kesenjangan sosial yang semakin lebar, menciptakan keresahan di kalangan masyarakat.</t>
+  </si>
+  <si>
+    <t>SOLEH SOMANTRI</t>
+  </si>
+  <si>
+    <t>Warga kami membutuhkan pelatihan keterampilan untuk meningkatkan daya saing di pasar kerja. Program pelatihan vokasional akan sangat membantu.</t>
+  </si>
+  <si>
+    <t>Akses internet lambat atau tidak ada, menghambat akses informasi dan pendidikan.</t>
+  </si>
+  <si>
+    <t>HANIFA HUMAIRA ARIP</t>
+  </si>
+  <si>
+    <t>Harga pupuk dan pestisida yang mahal, membebani petani kecil.</t>
+  </si>
+  <si>
+    <t>YADI MULYADI</t>
+  </si>
+  <si>
+    <t>Pekerjaan sulit dicari, pengangguran meningkat di wilayah ini.</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>IIP FATUROHMAN FAUJI</t>
+  </si>
+  <si>
+    <t>Banyaknya anak putus sekolah karena alasan ekonomi menunjukkan masalah serius dalam akses pendidikan yang merata dan terjangkau.</t>
+  </si>
+  <si>
+    <t>ADE HERAWATI</t>
+  </si>
+  <si>
+    <t>Pemanfaatan teknologi yang rendah di sektor pertanian menyebabkan produktivitas petani tidak maksimal dan pendapatan</t>
+  </si>
+  <si>
+    <t>RIYEN NURAENI</t>
+  </si>
+  <si>
+    <t>Program pelatihan kebersihan dan sanitasi harus diperkenalkan untuk meningkatkan kesadaran akan kebersihan lingkungan.</t>
+  </si>
+  <si>
+    <t>AZKIYA HASNA HUMAIRA</t>
+  </si>
+  <si>
+    <t>Jalan rusak, menyulitkan mobilitas penduduk dan distribusi barang.</t>
+  </si>
+  <si>
+    <t>ITA AGESTI</t>
+  </si>
+  <si>
+    <t>Sulitnya mendapatkan akses ke layanan telekomunikasi, mengisolasi kami dari dunia luar.</t>
+  </si>
+  <si>
+    <t>BUDI BUDIANTO</t>
+  </si>
+  <si>
+    <t>Ketidakpastian ekonomi global mempengaruhi ekspor dan impor Indonesia, membuat perekonomian nasional rentan terhadap fluktuasi internasional.</t>
+  </si>
+  <si>
+    <t>DARKA</t>
+  </si>
+  <si>
+    <t>Kelistrikan sering terganggu akibat cuaca ekstrem.</t>
+  </si>
+  <si>
+    <t>SILMA ALYA NANDA PUTRI</t>
+  </si>
+  <si>
+    <t>Jalan tidak ramah lingkungan, tanpa pohon atau taman penyerap polusi.</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>SRI WAHYUNI</t>
+  </si>
+  <si>
+    <t>Biaya pendidikan tinggi yang tidak terjangkau bagi banyak keluarga menyebabkan anak-anak dari keluarga kurang mampu tidak dapat melanjutkan ke perguruan tinggi.</t>
+  </si>
+  <si>
+    <t>YAYAN WARYAN</t>
+  </si>
+  <si>
+    <t>Kami membutuhkan perbaikan infrastruktur dasar seperti jalan dan saluran air. Musim hujan seringkali membawa banjir ke wilayah kami.</t>
+  </si>
+  <si>
+    <t>RUSIH</t>
+  </si>
+  <si>
+    <t>Masalah keamanan dan kriminalitas, mengganggu kedamaian dan kesejahteraan masyarakat pedesaan.</t>
+  </si>
+  <si>
+    <t>DARSAH</t>
+  </si>
+  <si>
+    <t>Kami meminta peningkatan keamanan di sekitar perumahan kami. Beberapa insiden kecil terjadi dan membuat kami khawatir akan keselamatan keluarga kami.</t>
+  </si>
+  <si>
+    <t>MAHMUD</t>
   </si>
   <si>
     <t>Keterbatasan akses terhadap layanan pernikahan dan keluarga, mempengaruhi kestabilan rumah tangga.</t>
   </si>
   <si>
-    <t>AFNI AMELIA RIZKI</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>Kurangnya rambu lalu lintas yang jelas dan terawat, membingungkan pengguna jalan.</t>
-  </si>
-  <si>
-    <t>MUHAMAD AIF MURIDANI</t>
-  </si>
-  <si>
-    <t>Sukamenak</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan perempuan akan membantu meningkatkan peran mereka dalam pengambilan keputusan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>EDO AHDA</t>
-  </si>
-  <si>
-    <t>Cisagakolot</t>
-  </si>
-  <si>
-    <t>010</t>
+    <t>FAREL ADI NUGROHO</t>
   </si>
   <si>
     <t>Kemacetan lalu lintas yang parah, menyebabkan waktu tempuh yang lama.</t>
   </si>
   <si>
-    <t>FARHAN PRATAMA</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan masyarakat lokal dalam mengelola sumber daya alam untuk keberlanjutan lingkungan.</t>
-  </si>
-  <si>
-    <t>RAINA KHUMAIRA</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program inklusivitas dan diversitas di tempat kerja untuk mendorong kesetaraan.</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
-    <t>MUHAMAD ZAKY FIRDAUS</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>Permasalahan ketergantungan obat-obatan terlarang, merusak kesehatan dan stabilitas sosial di pedesaan.</t>
-  </si>
-  <si>
-    <t>DANDI IRAWAN</t>
-  </si>
-  <si>
-    <t>Batununggul</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>Kurangnya lapangan kerja, menyebabkan tingginya tingkat pengangguran di pedesaan.</t>
-  </si>
-  <si>
-    <t>ROHANAH</t>
-  </si>
-  <si>
-    <t>Program beasiswa pendidikan sangat dibutuhkan untuk membantu anak-anak muda di wilayah kami mengakses pendidikan tinggi.</t>
-  </si>
-  <si>
-    <t>KOYOH</t>
-  </si>
-  <si>
-    <t>Kekurangan dokter dan tenaga medis, menghambat pelayanan kesehatan.</t>
-  </si>
-  <si>
-    <t>ABDUL WAHAB</t>
-  </si>
-  <si>
-    <t>Kurangnya perhatian pemerintah terhadap infrastruktur pedesaan, menyebabkan kemunduran.</t>
-  </si>
-  <si>
-    <t>ERIAN NURROIHAN</t>
-  </si>
-  <si>
-    <t>Peningkatan aksesibilitas transportasi bagi penyandang disabilitas akan membantu memastikan inklusivitas masyarakat kami.</t>
-  </si>
-  <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>AAN ANIAH</t>
-  </si>
-  <si>
-    <t>Program pelatihan kebersihan dan sanitasi harus diperkenalkan untuk meningkatkan kesadaran akan kebersihan lingkungan.</t>
-  </si>
-  <si>
-    <t>MUHAMAD IVAN FADILAH</t>
-  </si>
-  <si>
-    <t>Kurangnya sarana transportasi umum, membuat perjalanan menjadi sulit.</t>
-  </si>
-  <si>
-    <t>O RATISAH</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>kondisi jalan yang kumuh dan tidak terawat rawan-.</t>
-  </si>
-  <si>
-    <t>SAEPUL ANWAR</t>
-  </si>
-  <si>
-    <t>Tidak adanya dukungan sosial bagi kaum lanjut usia, meningkatkan risiko kesepian dan ketergantungan.</t>
-  </si>
-  <si>
-    <t>KARWA</t>
-  </si>
-  <si>
-    <t>Kurangnya keamanan dan pemeliharaan keamanan, meningkatkan tingkat kejahatan di daerah kami.</t>
-  </si>
-  <si>
-    <t>EBO</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>Tidak ada tempat penampungan untuk hewan jalanan di jalan.</t>
-  </si>
-  <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>SIDIK SEPRIANTO</t>
-  </si>
-  <si>
-    <t>Dukungan bagi industri pertanian organik untuk meningkatkan kualitas dan keamanan makanan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>UUS HUSNI MUBAROK</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>Kelistrikan sering terganggu akibat cuaca ekstrem.</t>
-  </si>
-  <si>
-    <t>ADE JAENAL ARIPIN</t>
-  </si>
-  <si>
-    <t>Kami berharap adanya program perbaikan dan pemeliharaan sarana olahraga yang sudah ada di wilayah kami.</t>
-  </si>
-  <si>
-    <t>IPAH KHOLIPAH</t>
-  </si>
-  <si>
-    <t>Warga kami membutuhkan dukungan ekonomi untuk membuka usaha kecil-kecilan. Kami berharap ada program bantuan modal untuk meningkatkan perekonomian lokal.</t>
-  </si>
-  <si>
-    <t>MUHAMAD MUIZ</t>
-  </si>
-  <si>
-    <t>Program pengembangan keterampilan teknologi informasi harus tersedia untuk semua lapisan masyarakat.</t>
-  </si>
-  <si>
-    <t>WASDI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi industri kreatif lokal akan membantu menciptakan lapangan kerja dan merangsang pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>ADE RESTU SHANDIKA</t>
-  </si>
-  <si>
-    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, membatasi partisipasi mereka dalam kehidupan sosial dan ekonomi.</t>
-  </si>
-  <si>
-    <t>AI AFIFAH NURFADILAH</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya program kreativitas seni untuk meningkatkan apresiasi seni di kalangan masyarakat.</t>
-  </si>
-  <si>
-    <t>DEDE DAFA JAENUL HAK</t>
-  </si>
-  <si>
-    <t>Kami berharap adanya program untuk mengatasi masalah perumahan yang layak bagi warga yang kurang mampu.</t>
-  </si>
-  <si>
-    <t>ROKIM</t>
-  </si>
-  <si>
-    <t>Kurangnya perhatian terhadap isu lingkungan dan keberlanjutan, menciptakan ketidakpastian akan masa depan lingkungan hidup.</t>
-  </si>
-  <si>
-    <t>ANAH R</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>Birokrasi perizinan usaha sulit dan memakan waktu.</t>
-  </si>
-  <si>
-    <t>FITRI LISNAWATI</t>
-  </si>
-  <si>
-    <t>Program pengembangan kawasan industri kecil untuk mendukung pengusaha lokal.</t>
-  </si>
-  <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FARIZ</t>
-  </si>
-  <si>
-    <t>Kami juga menghadapi masalah sosial, terutama terkait dengan kurangnya akses pendidikan di wilayah ini. Banyak anak-anak yang tidak bisa mengakses pendidikan yang layak.</t>
-  </si>
-  <si>
-    <t>REGINA ANGRAENI</t>
-  </si>
-  <si>
-    <t>Kondisi jalan pedesaan yang buruk, menghambat distribusi barang dan pertumbuhan sektor pertanian.</t>
-  </si>
-  <si>
-    <t>JAJANG ISKANDAR</t>
-  </si>
-  <si>
-    <t>Dukungan untuk pengembangan pertanian lokal akan membantu memperkuat ketahanan pangan komunitas kami.</t>
-  </si>
-  <si>
-    <t>ZAM ZAM MANARUL HIDAYAH</t>
-  </si>
-  <si>
-    <t>Isolasi sosial, membuat masyarakat pedesaan merasa terpinggirkan dari perkembangan sosial dan budaya.</t>
-  </si>
-  <si>
-    <t>MASTUM</t>
-  </si>
-  <si>
-    <t>Perlindungan terhadap hak-hak anak perlu diprioritaskan. Kami ingin melihat keamanan dan kesejahteraan anak-anak diutamakan.</t>
-  </si>
-  <si>
-    <t>ADIF ABDILAH</t>
-  </si>
-  <si>
-    <t>Kami perlu dukungan lebih lanjut dalam mengembangkan potensi pariwisata lokal. Ini dapat membantu meningkatkan ekonomi dan mengangkat citra wilayah kami.</t>
-  </si>
-  <si>
-    <t>2024-04-07</t>
-  </si>
-  <si>
-    <t>IYAH TARWIYATUL MUNAWAROH</t>
-  </si>
-  <si>
-    <t>Permasalahan budaya juga menjadi concern. Pentingnya pelestarian budaya lokal harus diimbangi dengan upaya perlindungan terhadap kearifan lokal yang terus terancam.</t>
-  </si>
-  <si>
-    <t>AMAR MA'RUF</t>
-  </si>
-  <si>
-    <t>Perlunya program pembangunan infrastruktur ramah lingkungan seperti jalur sepeda dan trotoar pejalan kaki.</t>
-  </si>
-  <si>
-    <t>ISOH KARMINI</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan masyarakat untuk meningkatkan partisipasi dalam pengambilan keputusan komunitas.</t>
-  </si>
-  <si>
-    <t>IKSAN NUR ROHIM</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke pasar, sulit untuk menjual hasil pertanian kami.</t>
-  </si>
-  <si>
-    <t>JUNI ALAWIYAH</t>
-  </si>
-  <si>
-    <t>Pentingnya kesetaraan gender perlu terus ditekankan. Kami ingin melihat lebih banyak kesempatan setara bagi perempuan di berbagai bidang.</t>
-  </si>
-  <si>
-    <t>DENI IRAWAN</t>
-  </si>
-  <si>
-    <t>Peningkatan pengelolaan limbah medis untuk menghindari risiko pencemaran lingkungan.</t>
-  </si>
-  <si>
-    <t>2024-04-08</t>
-  </si>
-  <si>
-    <t>FAJAR SIDIK</t>
-  </si>
-  <si>
-    <t>Kami berharap ada program pelatihan digital untuk meningkatkan literasi teknologi di kalangan masyarakat kami.</t>
-  </si>
-  <si>
-    <t>IIN RUDIANSYAH</t>
-  </si>
-  <si>
-    <t>Keterbatasan aksesibilitas bagi penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>YATI CAHYATI</t>
-  </si>
-  <si>
-    <t>Peningkatan keberlanjutan energi melalui pemanfaatan sumber energi terbarukan seperti tenaga surya.</t>
-  </si>
-  <si>
-    <t>ATIK SANTIKA</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program peningkatan literasi finansial di kalangan masyarakat kami.</t>
-  </si>
-  <si>
-    <t>LILIH</t>
-  </si>
-  <si>
-    <t>Pendidikan tentang pentingnya pola makan sehat dan gaya hidup aktif harus diintensifkan untuk mengatasi masalah kesehatan masyarakat.</t>
-  </si>
-  <si>
-    <t>HAMID</t>
-  </si>
-  <si>
-    <t>Program penyuluhan kesehatan mental untuk mengurangi stigma dan meningkatkan pemahaman masyarakat.</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>RIKA SARTIKA</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program pelatihan kerja bagi warga dewasa yang ingin meningkatkan keterampilan dan mencari pekerjaan.</t>
-  </si>
-  <si>
-    <t>DAUD</t>
-  </si>
-  <si>
-    <t>Layanan telekomunikasi yang tidak memadai, membatasi akses informasi dan kesempatan ekonomi.</t>
-  </si>
-  <si>
-    <t>DENIS AZHARI ZAKARIA</t>
-  </si>
-  <si>
-    <t>Marka jalan yang pudar atau tidak terlihat jelas, meningkatkan risiko kecelakaan.</t>
-  </si>
-  <si>
-    <t>TENI NURUL MUSLIMAH</t>
-  </si>
-  <si>
-    <t>Harga kebutuhan pokok naik terus, sulit untuk mencukupi kebutuhan sehari-hari.</t>
-  </si>
-  <si>
-    <t>ZIANKA MAULANA PUTRA</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap layanan sosial, memperburuk kondisi kesejahteraan sosial masyarakat pedesaan.</t>
-  </si>
-  <si>
-    <t>DAHLAN</t>
-  </si>
-  <si>
-    <t>Peningkatan layanan transportasi umum untuk mengurangi kemacetan dan emisi gas rumah kaca.</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>FIPIH SITI SOPYATI</t>
-  </si>
-  <si>
-    <t>kendaraan umum yang sulit dijumpai di wilayah terpencil.</t>
-  </si>
-  <si>
-    <t>ARMAN</t>
-  </si>
-  <si>
-    <t>Sistem pendidikan yang tidak merata dan kurang berkualitas, menghambat kemajuan sosial dan ekonomi bagi sebagian masyarakat.</t>
-  </si>
-  <si>
-    <t>ARINI KHOEROTUN HISAN</t>
-  </si>
-  <si>
-    <t>Keberlanjutan energi adalah hal penting bagi kami. Kami mendukung inisiatif untuk beralih ke sumber energi terbarukan.</t>
-  </si>
-  <si>
-    <t>KAILA ZAHROTUN NISA</t>
-  </si>
-  <si>
-    <t>Permasalahan kesejahteraan anak, seperti kurangnya nutrisi dan akses pendidikan yang memadai.</t>
-  </si>
-  <si>
-    <t>DIDING WAHYUDIN</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan generasi muda melalui kegiatan seni dan budaya.</t>
-  </si>
-  <si>
-    <t>EHA JULAEHA</t>
-  </si>
-  <si>
-    <t>Pasokan air tidak terjamin, meningkatkan risiko kekurangan air bersih dan sanitasi yang buruk.</t>
-  </si>
-  <si>
-    <t>2024-04-11</t>
-  </si>
-  <si>
-    <t>AISYAH NUR AZ-ZAHRA</t>
-  </si>
-  <si>
-    <t>Keamanan di wilayah kami juga perlu diperhatikan. Terjadi peningkatan kasus kriminalitas dan kami merasa perlu adanya peningkatan patroli keamanan.</t>
-  </si>
-  <si>
-    <t>Hj. DASTI</t>
-  </si>
-  <si>
-    <t>Kami membutuhkan perbaikan infrastruktur dasar seperti jalan dan saluran air. Musim hujan seringkali membawa banjir ke wilayah kami.</t>
-  </si>
-  <si>
-    <t>KARNENGSIH</t>
-  </si>
-  <si>
-    <t>Jaringan listrik tidak stabil, sering terjadi pemadaman listrik yang mengganggu aktivitas sehari-hari.</t>
-  </si>
-  <si>
-    <t>REVALINA VARISA GUNAWAN</t>
-  </si>
-  <si>
-    <t>Kami menghadapi tantangan ekonomi berat, terutama karena adanya dampak pandemi COVID-19. Banyak usaha kecil tutup, dan pengangguran meningkat.</t>
-  </si>
-  <si>
-    <t>ARSIAH</t>
-  </si>
-  <si>
-    <t>Peningkatan keamanan transportasi umum akan memberikan kenyamanan bagi warga yang bergantung pada transportasi publik.</t>
-  </si>
-  <si>
-    <t>APIP PERMANA</t>
-  </si>
-  <si>
-    <t>Program pelatihan keamanan siber untuk meningkatkan kesadaran tentang ancaman di dunia digital.</t>
-  </si>
-  <si>
-    <t>2024-04-12</t>
-  </si>
-  <si>
-    <t>ZAIDAN MUHAMMAD ARKANA</t>
-  </si>
-  <si>
-    <t>Harga pupuk dan pestisida yang mahal, membebani petani kecil.</t>
-  </si>
-  <si>
-    <t>SALMAN</t>
-  </si>
-  <si>
-    <t>Minimnya jalur sepeda membuat sulit bagi pengendara sepeda.</t>
-  </si>
-  <si>
-    <t>SAEPULOH</t>
-  </si>
-  <si>
-    <t>Pentingnya pendidikan karakter perlu ditekankan lebih lanjut. Kami ingin melihat generasi muda kami tumbuh menjadi individu yang bertanggung jawab dan beretika.</t>
-  </si>
-  <si>
-    <t>TOUFIK HIDAYAT</t>
-  </si>
-  <si>
-    <t>Isolasi sosial bagi penyandang disabilitas, memperparah ketidaksetaraan dan ketidakmampuan.</t>
-  </si>
-  <si>
-    <t>DZAKIRA ANDITA DARMAWAN</t>
-  </si>
-  <si>
-    <t>Inisiatif penanaman pohon dan pelestarian hutan untuk mengurangi dampak perubahan iklim.</t>
-  </si>
-  <si>
-    <t>ITIT</t>
-  </si>
-  <si>
-    <t>Perlunya program pelatihan keterampilan soft skills untuk meningkatkan kemampuan interpersonal.</t>
-  </si>
-  <si>
-    <t>2024-04-13</t>
-  </si>
-  <si>
-    <t>ABDUL ROUP</t>
-  </si>
-  <si>
-    <t>Jalan tidak terlayani saat hujan, menyebabkan banjir dan genangan air.</t>
-  </si>
-  <si>
-    <t>GHANIY YAZID KHAIRY</t>
-  </si>
-  <si>
-    <t>Perlindungan lingkungan hidup harus menjadi prioritas utama. Kami membutuhkan langkah-langkah untuk melindungi habitat alami dan keanekaragaman hayati.</t>
-  </si>
-  <si>
-    <t>GILANG SUHERMAN</t>
-  </si>
-  <si>
-    <t>Pasokan air tidak teratur, menyulitkan kebutuhan sehari-hari kami.</t>
-  </si>
-  <si>
-    <t>Pembangunan trotoar yang tidak merata dan berbahaya.</t>
-  </si>
-  <si>
-    <t>SITI NUR AZZAHRA</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program penyuluhan hukum untuk meningkatkan pemahaman masyarakat tentang hak dan kewajiban mereka.</t>
-  </si>
-  <si>
-    <t>DADI RAMDANI</t>
-  </si>
-  <si>
-    <t>Tidak adanya jaringan pengaman sosial yang memadai, menyebabkan kelompok rentan sulit mendapatkan dukungan saat menghadapi kesulitan.</t>
-  </si>
-  <si>
-    <t>2024-04-14</t>
-  </si>
-  <si>
-    <t>SUTIHAT</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program pencegahan kekerasan dalam rumah tangga dan perlindungan bagi korban.</t>
-  </si>
-  <si>
-    <t>SARTIM</t>
-  </si>
-  <si>
-    <t>Maraknya kekerasan dan kriminalitas, menciptakan rasa takut dan tidak aman di lingkungan sekitar.</t>
-  </si>
-  <si>
-    <t>RANIA NURALISYA</t>
-  </si>
-  <si>
-    <t>Kurangnya aksesibilitas bagi penyandang disabilitas, menghalangi partisipasi mereka dalam kehidupan sosial dan ekonomi lokal.</t>
-  </si>
-  <si>
-    <t>NANA SURYANA</t>
-  </si>
-  <si>
-    <t>Peningkatan ketersediaan fasilitas olahraga untuk mendukung gaya hidup aktif masyarakat.</t>
-  </si>
-  <si>
-    <t>DADANG</t>
-  </si>
-  <si>
-    <t>Layanan kesehatan yang kurang memadai, sulit untuk mendapatkan perawatan medis.</t>
-  </si>
-  <si>
-    <t>MUHAMAD WILDAN</t>
-  </si>
-  <si>
-    <t>Peningkatan kualitas air sungai dan sungai di sekitar wilayah kami.</t>
-  </si>
-  <si>
-    <t>2024-04-15</t>
-  </si>
-  <si>
-    <t>UYUM</t>
-  </si>
-  <si>
-    <t>Tidak adanya fasilitas penyeberangan untuk hewan di jalan raya.</t>
-  </si>
-  <si>
-    <t>ROSMIATIKA</t>
-  </si>
-  <si>
-    <t>Dukungan untuk industri kreatif lokal, seperti kerajinan tangan dan seni rupa, akan membantu meningkatkan perekonomian seniman lokal.</t>
-  </si>
-  <si>
-    <t>MUHAMAD RIZKI MAULANA</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan gender yang masih ada dalam berbagai aspek kehidupan, termasuk di tempat kerja dan dalam lingkungan domestik.</t>
-  </si>
-  <si>
-    <t>ALFI NURHASTIANI</t>
-  </si>
-  <si>
-    <t>Jalan rusak, menyulitkan mobilitas penduduk dan distribusi barang.</t>
-  </si>
-  <si>
-    <t>AAH SARIAH</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan perempuan dalam bisnis dan kewirausahaan.</t>
-  </si>
-  <si>
-    <t>RITA SETIAWATI</t>
-  </si>
-  <si>
-    <t>Warga kami membutuhkan pelatihan keterampilan untuk meningkatkan daya saing di pasar kerja. Program pelatihan vokasional akan sangat membantu.</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>RIZKI MAULANA</t>
-  </si>
-  <si>
-    <t>Kurangnya kesadaran akan isu-isu sosial, menghambat upaya pembangunan masyarakat yang inklusif.</t>
-  </si>
-  <si>
-    <t>JUNIA SARI</t>
-  </si>
-  <si>
-    <t>Sosial di lingkungan kami juga butuh perhatian lebih. Banyak keluarga yang kesulitan memenuhi kebutuhan sehari-hari, terutama mereka yang kurang mampu.</t>
-  </si>
-  <si>
-    <t>ELI SUMIATI</t>
-  </si>
-  <si>
-    <t>Kurangnya akses terhadap layanan kesehatan mental, meningkatkan risiko masalah kesehatan jiwa di pedesaan.</t>
-  </si>
-  <si>
-    <t>DADAN SUHENDAR</t>
-  </si>
-  <si>
-    <t>Isolasi dari layanan hiburan dan rekreasi, menyebabkan kebosanan dan kurangnya kegiatan positif.</t>
-  </si>
-  <si>
-    <t>YAJID</t>
-  </si>
-  <si>
-    <t>Sosial di wilayah kami perlu diperhatikan, terutama bagi kaum lansia yang seringkali merasa terisolasi. Program sosial untuk menjaga kesejahteraan mereka sangat diharapkan.</t>
-  </si>
-  <si>
-    <t>KARMAH</t>
-  </si>
-  <si>
-    <t>Keterbatasan transportasi umum, mempersulit mobilitas penduduk terutama dalam mencari pekerjaan dan pendidikan.</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>RISWAN</t>
-  </si>
-  <si>
-    <t>Program pelatihan untuk mengembangkan keterampilan teknologi bagi warga lanjut usia.</t>
-  </si>
-  <si>
-    <t>UHO HOSIAH</t>
-  </si>
-  <si>
-    <t>Masalah kekerasan dalam rumah tangga, merusak hubungan interpersonal dan kesejahteraan keluarga.</t>
-  </si>
-  <si>
-    <t>NURHADI</t>
-  </si>
-  <si>
-    <t>Saya sebagai warga melaporkan permasalahan ekonomi di lingkungan kami. Banyak dari kami kesulitan mencari pekerjaan dan merasakan beban ekonomi yang berat.</t>
-  </si>
-  <si>
-    <t>ATIK MUSTIKA</t>
-  </si>
-  <si>
-    <t>Ketersediaan listrik yang tidak konsisten, mengganggu aktivitas sehari-hari dan produktivitas usaha.</t>
-  </si>
-  <si>
-    <t>ILI AHMAD GOZALI</t>
-  </si>
-  <si>
-    <t>Pipa air tua sering bocor dan mengganggu pasokan air.</t>
-  </si>
-  <si>
-    <t>TISA ALISTIA</t>
-  </si>
-  <si>
-    <t>Program mentoring untuk membantu pemuda dalam merencanakan karir dan mencapai potensi penuh mereka.</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
-    <t>MUHAMAD KODAR</t>
-  </si>
-  <si>
-    <t>Biaya pendidikan mahal, sulit bagi keluarga kurang mampu.</t>
-  </si>
-  <si>
-    <t>DEDE MUHAMAD NAZAR</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap layanan kesehatan berkualitas, membuat banyak orang kesulitan mendapatkan perawatan yang dibutuhkan.</t>
-  </si>
-  <si>
-    <t>HILYA ALFATHU ZAIN</t>
-  </si>
-  <si>
-    <t>Minimnya tempat parkir untuk kendaraan umum di tempat kami.</t>
-  </si>
-  <si>
-    <t>Dukungan bagi inisiatif pengembangan kawasan wisata alam yang indah di sekitar wilayah kami.</t>
-  </si>
-  <si>
-    <t>FAKHRI RIDHO DWI PERMANA BUDIYANTO</t>
-  </si>
-  <si>
-    <t>Kurangnya sarana transportasi umum, menyulitkan akses penduduk terhadap layanan penting.</t>
-  </si>
-  <si>
-    <t>YUYUN</t>
-  </si>
-  <si>
-    <t>Perluasan program pemberdayaan petani kecil akan membantu meningkatkan produksi pangan lokal.</t>
-  </si>
-  <si>
-    <t>2024-04-19</t>
-  </si>
-  <si>
-    <t>SAPRI</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya program konservasi satwa liar di wilayah alam sekitar kami.</t>
-  </si>
-  <si>
-    <t>RANGGA PERMANA</t>
-  </si>
-  <si>
-    <t>Ketersediaan air bersih yang minim, meningkatkan risiko penyakit.</t>
-  </si>
-  <si>
-    <t>DIDA YUNIAR</t>
-  </si>
-  <si>
-    <t>Peningkatan infrastruktur untuk mendukung pengembangan industri kecil dan menengah lokal.</t>
-  </si>
-  <si>
-    <t>MUHAMAD RIJA</t>
-  </si>
-  <si>
-    <t>Peningkatan aksesibilitas fasilitas publik bagi penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>RUMI</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap perumahan yang layak dan terjangkau, menyebabkan masalah perumahan bagi banyak keluarga.</t>
-  </si>
-  <si>
-    <t>MUHAMAD HAIKAL SAPUTRA</t>
-  </si>
-  <si>
-    <t>Program pengentasan kemiskinan harus difokuskan pada membantu keluarga yang masih hidup di bawah garis kemiskinan.</t>
-  </si>
-  <si>
-    <t>2024-04-20</t>
-  </si>
-  <si>
-    <t>YAYAH ZAKIAH</t>
-  </si>
-  <si>
-    <t>Banyak produk palsu, merugikan konsumen dan produsen asli.</t>
-  </si>
-  <si>
-    <t>DIDIN BASOLI ALWI</t>
-  </si>
-  <si>
-    <t>Dukungan bagi program rehabilitasi bagi mantan narapidana untuk memfasilitasi reintegrasi sosial.</t>
-  </si>
-  <si>
-    <t>SOMAD</t>
-  </si>
-  <si>
-    <t>Keamanan menjadi perhatian utama. Kami membutuhkan peningkatan patroli keamanan dan kerjasama dengan kepolisian untuk mengatasi peningkatan kejahatan di lingkungan kami.</t>
-  </si>
-  <si>
-    <t>MUHAMAD MIFTAHUL ULLUM</t>
-  </si>
-  <si>
-    <t>Program penghijauan kota dapat memberikan manfaat jangka panjang bagi kesehatan dan keindahan lingkungan kami.</t>
-  </si>
-  <si>
-    <t>IIM HILMATUSA`DIAH</t>
-  </si>
-  <si>
-    <t>Kami mendukung inisiatif untuk melestarikan warisan arsitektur dan bangunan bersejarah di wilayah kami.</t>
-  </si>
-  <si>
-    <t>AYRA SHAFANA</t>
-  </si>
-  <si>
-    <t>Program rehabilitasi dan perawatan bagi kaum tunawisma perlu ditingkatkan untuk membantu mereka mendapatkan kembali stabilitas hidup.</t>
-  </si>
-  <si>
-    <t>2024-04-21</t>
-  </si>
-  <si>
-    <t>YUSMIATI</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses terhadap teknologi dan informasi, memperlebar kesenjangan digital dan sosial.</t>
-  </si>
-  <si>
-    <t>ANI SITI ROHANI</t>
-  </si>
-  <si>
-    <t>Kurangnya lapangan kerja dan peluang ekonomi yang memadai, meningkatkan tingkat pengangguran dan ketidakpastian pekerjaan.</t>
-  </si>
-  <si>
-    <t>PANI HAMDANI</t>
-  </si>
-  <si>
-    <t>Budaya lokal harus lebih dipromosikan agar tidak hilang. Kami ingin melihat kegiatan budaya lebih sering diadakan untuk mempertahankan warisan nenek moyang kami.</t>
-  </si>
-  <si>
-    <t>IRWANTO</t>
-  </si>
-  <si>
-    <t>Program edukasi tentang bahaya narkoba dan cara mencegahnya harus diperkenalkan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>IAN SRIYANTI</t>
-  </si>
-  <si>
-    <t>Kami mendukung inisiatif untuk menciptakan ruang publik yang aman dan bersih bagi anak-anak dan keluarga.</t>
-  </si>
-  <si>
-    <t>VINA NOVIANTI</t>
-  </si>
-  <si>
-    <t>Masalah keamanan dan kriminalitas, mengganggu kedamaian dan kesejahteraan masyarakat pedesaan.</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>ELA NURLAELA SARI</t>
-  </si>
-  <si>
-    <t>Kualitas jaringan telekomunikasi rendah, menghambat akses informasi dan pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>AHMAD AZZAM NURWAHID</t>
-  </si>
-  <si>
-    <t>Pengembangan pariwisata berkelanjutan akan membantu mempromosikan potensi pariwisata lokal dan menciptakan lapangan kerja.</t>
-  </si>
-  <si>
-    <t>ROHIMAT</t>
-  </si>
-  <si>
-    <t>Kualitas jalan pedesaan yang buruk, membatasi akses petani ke pasar dan meningkatkan biaya transportasi.</t>
-  </si>
-  <si>
-    <t>TAUPIKURROHMAN</t>
-  </si>
-  <si>
-    <t>Ketidaksetaraan pendapatan dan kesenjangan sosial yang semakin lebar, menciptakan keresahan di kalangan masyarakat.</t>
-  </si>
-  <si>
-    <t>RIANSYAH</t>
-  </si>
-  <si>
-    <t>Kurangnya kesempatan kerja, meningkatkan tingkat pengangguran dan kemiskinan di komunitas pedesaan.</t>
-  </si>
-  <si>
-    <t>RUSIH</t>
-  </si>
-  <si>
-    <t>Jembatan yang tidak terawat, mengancam keselamatan transportasi dan mengisolasi wilayah.</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>ABDUL ROJIKIN</t>
-  </si>
-  <si>
-    <t>Sosialisasi mengenai pentingnya pelestarian lingkungan perlu ditingkatkan. Kami ingin lingkungan kami menjadi lebih bersih dan berkelanjutan.</t>
-  </si>
-  <si>
-    <t>DAIS NUR AZIZAH</t>
-  </si>
-  <si>
-    <t>Kurangnya sarana olahraga dan rekreasi, membuat generasi muda kurang aktif.</t>
-  </si>
-  <si>
-    <t>MUHAMAD RESTU REYHAN</t>
-  </si>
-  <si>
-    <t>Tingginya tingkat perceraian dan konflik rumah tangga, mempengaruhi stabilitas sosial di pedesaan.</t>
-  </si>
-  <si>
-    <t>DAROYAH</t>
-  </si>
-  <si>
-    <t>Kami ingin melihat adanya program peningkatan kualitas air minum di wilayah kami.</t>
-  </si>
-  <si>
-    <t>ZAIDA AJMAL MUSTHOFA</t>
-  </si>
-  <si>
-    <t>Pasokan air yang tidak stabil, meningkatkan risiko krisis kesehatan dan kebersihan di masyarakat.</t>
-  </si>
-  <si>
-    <t>ENOK ULFAH</t>
-  </si>
-  <si>
-    <t>Perlunya program pendidikan mengenai dampak perubahan iklim dan upaya mitigasi.</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
-    <t>IJA</t>
+    <t>AHMAD YAJID</t>
+  </si>
+  <si>
+    <t>Masalah sanitasi yang buruk di daerah kumuh menyebabkan penyebaran penyakit dan menurunkan kualitas hidup warga yang tinggal di sana.</t>
+  </si>
+  <si>
+    <t>HANIF YANUAR HAZMI</t>
   </si>
   <si>
     <t>Jalan berlubang yang berbahaya bagi pengendara sepeda motor dan pengguna jalan lainnya.</t>
-  </si>
-  <si>
-    <t>MAMAN LUKMAN</t>
-  </si>
-  <si>
-    <t>Pemberdayaan anak muda melalui program pelatihan kewirausahaan akan menciptakan generasi yang kreatif dan mandiri.</t>
-  </si>
-  <si>
-    <t>RIMA RAHMIATUL HUSNA</t>
-  </si>
-  <si>
-    <t>Infrastruktur jalan rusak, sulit bagi kami untuk mengakses kota terdekat.</t>
-  </si>
-  <si>
-    <t>ILYAS SY</t>
-  </si>
-  <si>
-    <t>Fasilitas jalan yang tidak terpelihara dengan baik, menghambat pertumbuhan ekonomi dan aksesibilitas penduduk.</t>
-  </si>
-  <si>
-    <t>WARTI</t>
-  </si>
-  <si>
-    <t>Persaingan usaha tidak sehat, usaha kecil sulit bertahan.</t>
-  </si>
-  <si>
-    <t>REZKY KEYLA RIVANA</t>
-  </si>
-  <si>
-    <t>Parkir liar yang menghalangi akses jalan dan mengurangi ruang untuk kendaraan.</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>ALIF FIQRILLAH AL HAPIDZ</t>
-  </si>
-  <si>
-    <t>Kami mendukung adanya program peningkatan kesadaran akan pentingnya pelestarian lingkungan di sekolah-sekolah.</t>
-  </si>
-  <si>
-    <t>SAHRUL HAKIM</t>
-  </si>
-  <si>
-    <t>Kurangnya perawatan rutin, membuat jalan semakin buruk.</t>
-  </si>
-  <si>
-    <t>EDI</t>
-  </si>
-  <si>
-    <t>Diskriminasi terhadap minoritas etnis, menyebabkan ketidakadilan dan ketegangan sosial di masyarakat.</t>
-  </si>
-  <si>
-    <t>ERO ARIYANTO</t>
-  </si>
-  <si>
-    <t>Ketimpangan sosial dan ekonomi semakin besar, kesenjangan kaya-miskin.</t>
-  </si>
-  <si>
-    <t>RIRIN SITI KOMARIAH</t>
-  </si>
-  <si>
-    <t>Keamanan jalan di sekitar sekolah harus ditingkatkan. Kami merasa khawatir dengan keselamatan anak-anak kami saat pergi dan pulang sekolah.</t>
-  </si>
-  <si>
-    <t>NATASYA UTAMI PUTRI</t>
-  </si>
-  <si>
-    <t>Program pengelolaan air yang berkelanjutan untuk mengatasi masalah ketersediaan air di musim kemarau.</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
-  </si>
-  <si>
-    <t>DAESIH</t>
-  </si>
-  <si>
-    <t>Peningkatan keamanan di area bermain anak-anak dan taman umum di malam hari.</t>
-  </si>
-  <si>
-    <t>ASEP ADI SAPUTRA</t>
-  </si>
-  <si>
-    <t>Perlunya fasilitas pusat kebugaran komunitas untuk meningkatkan kesadaran akan gaya hidup sehat.</t>
-  </si>
-  <si>
-    <t>MUHTAR</t>
-  </si>
-  <si>
-    <t>Budaya lokal kami, meskipun kaya, terkadang terabaikan. Kami ingin melihat lebih banyak acara budaya dan festival untuk mempromosikan keunikan kami.</t>
-  </si>
-  <si>
-    <t>MUTIARA SYAHIDAH</t>
-  </si>
-  <si>
-    <t>Sistem drainase yang tidak efektif, menyebabkan risiko banjir dan kerusakan infrastruktur pada musim hujan.</t>
-  </si>
-  <si>
-    <t>MUSA SAYID FADILAH</t>
-  </si>
-  <si>
-    <t>Program penghijauan atap bangunan untuk mengurangi efek pemanasan kota.</t>
-  </si>
-  <si>
-    <t>WANDI ADITYA</t>
-  </si>
-  <si>
-    <t>Akses internet lambat atau tidak ada, menghambat akses informasi dan pendidikan.</t>
-  </si>
-  <si>
-    <t>2024-04-27</t>
-  </si>
-  <si>
-    <t>SALBIAH</t>
-  </si>
-  <si>
-    <t>Pendidikan yang terbatas, sulit untuk mendapatkan akses pendidikan berkualitas.</t>
-  </si>
-  <si>
-    <t>ATIK SINTIA</t>
-  </si>
-  <si>
-    <t>Tidak ada jalur khusus transportasi umum, menyebabkan kemacetan.</t>
-  </si>
-  <si>
-    <t>SAHDI</t>
-  </si>
-  <si>
-    <t>Kami berharap ada program bantuan bagi keluarga yang terkena dampak bencana alam untuk memulihkan kehidupan mereka.</t>
-  </si>
-  <si>
-    <t>MARJUK</t>
-  </si>
-  <si>
-    <t>Jalan tidak ramah lingkungan, tanpa pohon atau taman penyerap polusi.</t>
-  </si>
-  <si>
-    <t>Banyak masyarakat yang merasa khawatir karena harga pangan yang sering berfluktuasi dan sulit diprediksi.</t>
-  </si>
-  <si>
-    <t>AMIRUL MU'MININ</t>
-  </si>
-  <si>
-    <t>Dukungan bagi inisiatif pengembangan kawasan pedesaan untuk mendorong pertumbuhan ekonomi lokal.</t>
-  </si>
-  <si>
-    <t>2024-04-28</t>
-  </si>
-  <si>
-    <t>YENIE SINTIANI</t>
-  </si>
-  <si>
-    <t>Listrik sering mati, mengganggu kegiatan sehari-hari kami.</t>
-  </si>
-  <si>
-    <t>SAEPUL WAHID</t>
-  </si>
-  <si>
-    <t>Kurangnya penyeberangan pejalan kaki dan fasilitas untuk penyandang disabilitas.</t>
-  </si>
-  <si>
-    <t>MIAH</t>
-  </si>
-  <si>
-    <t>Jalan rusak parah, mengganggu kelancaran lalu lintas dan merusak kendaraan.</t>
-  </si>
-  <si>
-    <t>YUSUP ISKANDAR</t>
-  </si>
-  <si>
-    <t>Kondisi jembatan yang memburuk, mengancam keselamatan transportasi dan konektivitas antarwilayah.</t>
-  </si>
-  <si>
-    <t>SCENI FITRIYANI</t>
-  </si>
-  <si>
-    <t>Kolaborasi antarwarga perlu ditingkatkan untuk membangun rasa solidaritas dan kebersamaan di komunitas kami.</t>
-  </si>
-  <si>
-    <t>JUMI</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke bank dan layanan keuangan, menghambat pertumbuhan ekonomi.</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
-    <t>LISTIANY EVHEN JABAR</t>
-  </si>
-  <si>
-    <t>Program pemberdayaan petani lokal dalam beralih ke praktik pertanian organik.</t>
-  </si>
-  <si>
-    <t>ABDULAH</t>
-  </si>
-  <si>
-    <t>Tidak adanya jalur sepeda yang aman, menghambat pengembangan transportasi berkelanjutan.</t>
-  </si>
-  <si>
-    <t>MAYA KOMALASARI</t>
-  </si>
-  <si>
-    <t>Kebutuhan perluasan jalan tidak terpenuhi, menyebabkan kemacetan terus bertambah.</t>
-  </si>
-  <si>
-    <t>MUHAMAD ALPIAN KHOIR</t>
-  </si>
-  <si>
-    <t>Isu diskriminasi rasial dan etnis yang terus muncul, menciptakan ketegangan dan konflik di antara berbagai kelompok masyarakat.</t>
-  </si>
-  <si>
-    <t>DIKA HADI RAHMANDA</t>
-  </si>
-  <si>
-    <t>Keterbatasan akses ke fasilitas kesehatan, memperlambat penanganan darurat dan perawatan medis.</t>
-  </si>
-  <si>
-    <t>JUMANTA</t>
-  </si>
-  <si>
-    <t>Kurangnya tempat pembuangan sampah, mengakibatkan pencemaran lingkungan.</t>
-  </si>
-  <si>
-    <t>2024-04-30</t>
-  </si>
-  <si>
-    <t>DAFA IBNU HAFIDZ</t>
-  </si>
-  <si>
-    <t>Peningkatan infrastruktur telekomunikasi akan memastikan akses internet yang cepat dan andal bagi semua warga.</t>
-  </si>
-  <si>
-    <t>RIZKI ROMADHONI OCTAVIANSYAH</t>
-  </si>
-  <si>
-    <t>Perlunya fasilitas ruang baca umum untuk menggalakkan minat membaca di kalangan anak-anak dan remaja.</t>
-  </si>
-  <si>
-    <t>SALSA BILA</t>
-  </si>
-  <si>
-    <t>Dukungan pemerintah untuk pengembangan seni dan kreativitas lokal akan sangat diapresiasi. Inisiatif ini dapat memberikan peluang baru bagi para seniman dan budayawan.</t>
-  </si>
-  <si>
-    <t>IAH SITI WARLIAH</t>
-  </si>
-  <si>
-    <t>Drainase yang buruk, menyebabkan banjir dan kerusakan infrastruktur saat musim hujan.</t>
-  </si>
-  <si>
-    <t>SULIS NURWINA RAHMA</t>
-  </si>
-  <si>
-    <t>Peningkatan pelayanan kesehatan mental di wilayah kami, termasuk akses ke konseling.</t>
-  </si>
-  <si>
-    <t>OPIK TAUPIK</t>
-  </si>
-  <si>
-    <t>Sulitnya mendapatkan akses ke layanan telekomunikasi, mengisolasi kami dari dunia luar.</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1845,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,19 +1916,19 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1693,22 +1939,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1719,16 +1965,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1748,19 +1994,19 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1771,22 +2017,22 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1794,19 +2040,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1820,25 +2066,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1846,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -1855,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1872,25 +2118,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1898,25 +2144,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1924,25 +2170,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1950,19 +2196,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1976,19 +2222,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2002,25 +2248,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2028,19 +2274,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -2054,25 +2300,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2080,25 +2326,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2106,19 +2352,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2132,19 +2378,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -2158,7 +2404,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -2167,10 +2413,10 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -2184,19 +2430,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -2210,19 +2456,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -2236,19 +2482,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -2268,13 +2514,13 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -2294,19 +2540,19 @@
         <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
         <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2317,22 +2563,22 @@
         <v>78</v>
       </c>
       <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2343,22 +2589,22 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2369,22 +2615,22 @@
         <v>78</v>
       </c>
       <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2395,7 +2641,7 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -2404,13 +2650,13 @@
         <v>68</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2418,25 +2664,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2444,16 +2690,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -2462,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2470,25 +2716,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2496,25 +2742,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2522,25 +2768,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2548,25 +2794,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2574,25 +2820,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2600,25 +2846,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
-        <v>109</v>
-      </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
         <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2626,25 +2872,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2652,25 +2898,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2678,25 +2924,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
       </c>
       <c r="H42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2704,25 +2950,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2730,25 +2976,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2756,25 +3002,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
         <v>119</v>
       </c>
-      <c r="C45" t="s">
-        <v>122</v>
-      </c>
       <c r="D45" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2782,25 +3028,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2808,25 +3054,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2834,25 +3080,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2860,25 +3106,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2886,25 +3132,25 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2912,25 +3158,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
         <v>132</v>
       </c>
-      <c r="C51" t="s">
-        <v>135</v>
-      </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2938,25 +3184,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2964,25 +3210,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2990,25 +3236,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3016,25 +3262,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3042,25 +3288,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3068,25 +3314,25 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" t="s">
+        <v>61</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
         <v>145</v>
-      </c>
-      <c r="C57" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F57" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3094,25 +3340,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3120,25 +3366,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3146,25 +3392,25 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3172,25 +3418,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3198,25 +3444,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3224,25 +3470,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
         <v>158</v>
-      </c>
-      <c r="C63" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3250,25 +3496,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3276,25 +3522,25 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3302,25 +3548,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3328,25 +3574,25 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3354,25 +3600,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3380,25 +3626,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
         <v>171</v>
-      </c>
-      <c r="C69" t="s">
-        <v>174</v>
-      </c>
-      <c r="D69" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3406,25 +3652,25 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3432,25 +3678,25 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
       </c>
       <c r="H71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3458,25 +3704,25 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3484,25 +3730,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
         <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3510,25 +3756,25 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G74" t="s">
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3536,25 +3782,25 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
         <v>184</v>
-      </c>
-      <c r="C75" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3562,25 +3808,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
         <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3588,25 +3834,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G77" t="s">
         <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3614,25 +3860,25 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
         <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3640,25 +3886,25 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
         <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3666,25 +3912,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
         <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3692,25 +3938,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G81" t="s">
         <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3721,13 +3967,13 @@
         <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -3736,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3747,22 +3993,22 @@
         <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G83" t="s">
         <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3773,22 +4019,22 @@
         <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3799,22 +4045,22 @@
         <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
         <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3822,25 +4068,25 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
         <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3848,25 +4094,25 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3874,25 +4120,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" t="s">
         <v>209</v>
       </c>
-      <c r="C88" t="s">
-        <v>214</v>
-      </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3900,25 +4146,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
         <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3926,25 +4172,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3952,25 +4198,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
         <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3978,25 +4224,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G92" t="s">
         <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4004,25 +4250,25 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G93" t="s">
         <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4030,25 +4276,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" t="s">
         <v>222</v>
       </c>
-      <c r="C94" t="s">
-        <v>227</v>
-      </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G94" t="s">
         <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4056,25 +4302,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G95" t="s">
         <v>13</v>
       </c>
       <c r="H95" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4082,25 +4328,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4108,25 +4354,25 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D97" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G97" t="s">
         <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4134,25 +4380,25 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D98" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4160,25 +4406,25 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C99" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
         <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4186,25 +4432,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" t="s">
         <v>235</v>
       </c>
-      <c r="C100" t="s">
-        <v>240</v>
-      </c>
       <c r="D100" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4212,25 +4458,25 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4238,25 +4484,25 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C102" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
         <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4264,25 +4510,25 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
         <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4290,25 +4536,25 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C104" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
         <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4316,25 +4562,25 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G105" t="s">
         <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4342,25 +4588,25 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" t="s">
         <v>248</v>
       </c>
-      <c r="C106" t="s">
-        <v>253</v>
-      </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="F106" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
         <v>13</v>
       </c>
       <c r="H106" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4368,25 +4614,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
         <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4394,25 +4640,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
         <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4420,25 +4666,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4446,25 +4692,25 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4472,25 +4718,25 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G111" t="s">
         <v>13</v>
       </c>
       <c r="H111" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4498,25 +4744,25 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>247</v>
+      </c>
+      <c r="C112" t="s">
         <v>260</v>
       </c>
-      <c r="C112" t="s">
-        <v>265</v>
-      </c>
       <c r="D112" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G112" t="s">
         <v>13</v>
       </c>
       <c r="H112" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4524,25 +4770,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="G113" t="s">
         <v>13</v>
       </c>
       <c r="H113" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4550,25 +4796,25 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G114" t="s">
         <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4576,25 +4822,25 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
         <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G115" t="s">
         <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4602,25 +4848,25 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D116" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4628,25 +4874,25 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C117" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
         <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4654,25 +4900,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" t="s">
         <v>273</v>
       </c>
-      <c r="C118" t="s">
-        <v>278</v>
-      </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G118" t="s">
         <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4680,25 +4926,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D119" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
         <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4706,25 +4952,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G120" t="s">
         <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4732,25 +4978,25 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G121" t="s">
         <v>13</v>
       </c>
       <c r="H121" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4758,25 +5004,25 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D122" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F122" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4784,25 +5030,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
         <v>13</v>
       </c>
       <c r="H123" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4810,25 +5056,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" t="s">
         <v>286</v>
       </c>
-      <c r="C124" t="s">
-        <v>291</v>
-      </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G124" t="s">
         <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4836,25 +5082,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E125" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4862,25 +5108,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D126" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="G126" t="s">
         <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4888,25 +5134,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G127" t="s">
         <v>13</v>
       </c>
       <c r="H127" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4914,25 +5160,25 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D128" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F128" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G128" t="s">
         <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4940,25 +5186,25 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D129" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="G129" t="s">
         <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4966,25 +5212,25 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" t="s">
         <v>299</v>
       </c>
-      <c r="C130" t="s">
-        <v>304</v>
-      </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G130" t="s">
         <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4992,25 +5238,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D131" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E131" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5018,25 +5264,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C132" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D132" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G132" t="s">
         <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5044,25 +5290,25 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C133" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F133" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G133" t="s">
         <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5070,25 +5316,25 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C134" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
         <v>12</v>
       </c>
-      <c r="F134" t="s">
-        <v>21</v>
-      </c>
       <c r="G134" t="s">
         <v>13</v>
       </c>
       <c r="H134" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5096,25 +5342,25 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C135" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E135" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5122,25 +5368,25 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>298</v>
+      </c>
+      <c r="C136" t="s">
+        <v>311</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
         <v>312</v>
-      </c>
-      <c r="C136" t="s">
-        <v>317</v>
-      </c>
-      <c r="D136" t="s">
-        <v>10</v>
-      </c>
-      <c r="E136" t="s">
-        <v>62</v>
-      </c>
-      <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5148,25 +5394,25 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C137" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D137" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G137" t="s">
         <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5174,25 +5420,25 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C138" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5200,25 +5446,25 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C139" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D139" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E139" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F139" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
         <v>13</v>
       </c>
       <c r="H139" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5226,25 +5472,25 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C140" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G140" t="s">
         <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5252,25 +5498,25 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C141" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D141" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
         <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5278,25 +5524,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
+        <v>315</v>
+      </c>
+      <c r="C142" t="s">
+        <v>324</v>
+      </c>
+      <c r="D142" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
         <v>325</v>
-      </c>
-      <c r="C142" t="s">
-        <v>330</v>
-      </c>
-      <c r="D142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" t="s">
-        <v>62</v>
-      </c>
-      <c r="F142" t="s">
-        <v>39</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5304,25 +5550,25 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C143" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5330,25 +5576,25 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C144" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G144" t="s">
         <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5356,25 +5602,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
         <v>38</v>
       </c>
-      <c r="E145" t="s">
-        <v>68</v>
-      </c>
       <c r="F145" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>13</v>
       </c>
       <c r="H145" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5382,25 +5628,25 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C146" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D146" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
         <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5408,16 +5654,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C147" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
@@ -5426,7 +5672,7 @@
         <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5434,25 +5680,25 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C148" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D148" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G148" t="s">
         <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5460,25 +5706,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" t="s">
         <v>338</v>
       </c>
-      <c r="C149" t="s">
-        <v>345</v>
-      </c>
       <c r="D149" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F149" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G149" t="s">
         <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5486,25 +5732,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C150" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D150" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G150" t="s">
         <v>13</v>
       </c>
       <c r="H150" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5512,25 +5758,25 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C151" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="F151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G151" t="s">
         <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5538,25 +5784,25 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C152" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G152" t="s">
         <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5564,25 +5810,25 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C153" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G153" t="s">
         <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5590,25 +5836,25 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D154" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G154" t="s">
         <v>13</v>
       </c>
       <c r="H154" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5616,25 +5862,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>348</v>
+      </c>
+      <c r="C155" t="s">
         <v>351</v>
       </c>
-      <c r="C155" t="s">
-        <v>358</v>
-      </c>
       <c r="D155" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G155" t="s">
         <v>13</v>
       </c>
       <c r="H155" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5642,25 +5888,25 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C156" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E156" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
       </c>
       <c r="H156" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5668,25 +5914,25 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C157" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D157" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E157" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F157" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G157" t="s">
         <v>13</v>
       </c>
       <c r="H157" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5694,25 +5940,25 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C158" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
         <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5720,25 +5966,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C159" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D159" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
         <v>13</v>
       </c>
       <c r="H159" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5746,25 +5992,25 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C160" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>13</v>
       </c>
       <c r="H160" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5772,25 +6018,25 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
+        <v>348</v>
+      </c>
+      <c r="C161" t="s">
+        <v>363</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>44</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
+      <c r="H161" t="s">
         <v>364</v>
-      </c>
-      <c r="C161" t="s">
-        <v>371</v>
-      </c>
-      <c r="D161" t="s">
-        <v>10</v>
-      </c>
-      <c r="E161" t="s">
-        <v>62</v>
-      </c>
-      <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5798,25 +6044,25 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C162" t="s">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="D162" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F162" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G162" t="s">
         <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5824,25 +6070,25 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C163" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F163" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G163" t="s">
         <v>13</v>
       </c>
       <c r="H163" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5850,25 +6096,25 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C164" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G164" t="s">
         <v>13</v>
       </c>
       <c r="H164" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5876,25 +6122,25 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C165" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G165" t="s">
         <v>13</v>
       </c>
       <c r="H165" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5902,25 +6148,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C166" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E166" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G166" t="s">
         <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5928,25 +6174,25 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>365</v>
+      </c>
+      <c r="C167" t="s">
         <v>376</v>
       </c>
-      <c r="C167" t="s">
-        <v>383</v>
-      </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F167" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G167" t="s">
         <v>13</v>
       </c>
       <c r="H167" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5954,25 +6200,25 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C168" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="G168" t="s">
         <v>13</v>
       </c>
       <c r="H168" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5980,25 +6226,25 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C169" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F169" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G169" t="s">
         <v>13</v>
       </c>
       <c r="H169" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6006,25 +6252,25 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C170" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G170" t="s">
         <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6032,25 +6278,25 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C171" t="s">
-        <v>392</v>
+        <v>262</v>
       </c>
       <c r="D171" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G171" t="s">
         <v>13</v>
       </c>
       <c r="H171" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6058,25 +6304,25 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="D172" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F172" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G172" t="s">
         <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6084,25 +6330,25 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
+        <v>382</v>
+      </c>
+      <c r="C173" t="s">
+        <v>388</v>
+      </c>
+      <c r="D173" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>21</v>
+      </c>
+      <c r="F173" t="s">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
         <v>389</v>
-      </c>
-      <c r="C173" t="s">
-        <v>396</v>
-      </c>
-      <c r="D173" t="s">
-        <v>24</v>
-      </c>
-      <c r="E173" t="s">
-        <v>31</v>
-      </c>
-      <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
-      <c r="H173" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6110,25 +6356,25 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C174" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D174" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
         <v>21</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G174" t="s">
         <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6136,25 +6382,25 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C175" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
         <v>13</v>
       </c>
       <c r="H175" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6162,25 +6408,25 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C176" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D176" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G176" t="s">
         <v>13</v>
       </c>
       <c r="H176" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6188,25 +6434,25 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C177" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G177" t="s">
         <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6214,25 +6460,25 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C178" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
       </c>
       <c r="E178" t="s">
+        <v>17</v>
+      </c>
+      <c r="F178" t="s">
         <v>21</v>
       </c>
-      <c r="F178" t="s">
-        <v>25</v>
-      </c>
       <c r="G178" t="s">
         <v>13</v>
       </c>
       <c r="H178" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6240,25 +6486,25 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>398</v>
+      </c>
+      <c r="C179" t="s">
+        <v>401</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179" t="s">
+        <v>44</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
         <v>402</v>
-      </c>
-      <c r="C179" t="s">
-        <v>409</v>
-      </c>
-      <c r="D179" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" t="s">
-        <v>16</v>
-      </c>
-      <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s">
-        <v>13</v>
-      </c>
-      <c r="H179" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6266,25 +6512,25 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C180" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F180" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G180" t="s">
         <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6292,25 +6538,1169 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C181" t="s">
+        <v>290</v>
+      </c>
+      <c r="D181" t="s">
+        <v>10</v>
+      </c>
+      <c r="E181" t="s">
+        <v>44</v>
+      </c>
+      <c r="F181" t="s">
+        <v>32</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>398</v>
+      </c>
+      <c r="C182" t="s">
+        <v>406</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s">
+        <v>29</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>398</v>
+      </c>
+      <c r="C183" t="s">
+        <v>408</v>
+      </c>
+      <c r="D183" t="s">
+        <v>16</v>
+      </c>
+      <c r="E183" t="s">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>398</v>
+      </c>
+      <c r="C184" t="s">
+        <v>410</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" t="s">
+        <v>38</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>398</v>
+      </c>
+      <c r="C185" t="s">
+        <v>412</v>
+      </c>
+      <c r="D185" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" t="s">
+        <v>25</v>
+      </c>
+      <c r="F185" t="s">
+        <v>28</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
         <v>413</v>
       </c>
-      <c r="D181" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" t="s">
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>414</v>
+      </c>
+      <c r="C186" t="s">
+        <v>83</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>29</v>
+      </c>
+      <c r="F186" t="s">
+        <v>29</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>414</v>
+      </c>
+      <c r="C187" t="s">
+        <v>416</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
+        <v>11</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>414</v>
+      </c>
+      <c r="C188" t="s">
+        <v>418</v>
+      </c>
+      <c r="D188" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" t="s">
+        <v>11</v>
+      </c>
+      <c r="F188" t="s">
+        <v>11</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>414</v>
+      </c>
+      <c r="C189" t="s">
+        <v>420</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" t="s">
+        <v>57</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>414</v>
+      </c>
+      <c r="C190" t="s">
+        <v>422</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>414</v>
+      </c>
+      <c r="C191" t="s">
+        <v>424</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>414</v>
+      </c>
+      <c r="C192" t="s">
+        <v>426</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" t="s">
+        <v>61</v>
+      </c>
+      <c r="F192" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>414</v>
+      </c>
+      <c r="C193" t="s">
+        <v>428</v>
+      </c>
+      <c r="D193" t="s">
+        <v>10</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>430</v>
+      </c>
+      <c r="C194" t="s">
+        <v>431</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194" t="s">
+        <v>33</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>430</v>
+      </c>
+      <c r="C195" t="s">
+        <v>433</v>
+      </c>
+      <c r="D195" t="s">
+        <v>10</v>
+      </c>
+      <c r="E195" t="s">
+        <v>44</v>
+      </c>
+      <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>430</v>
+      </c>
+      <c r="C196" t="s">
+        <v>435</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" t="s">
+        <v>68</v>
+      </c>
+      <c r="F196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>430</v>
+      </c>
+      <c r="C197" t="s">
+        <v>437</v>
+      </c>
+      <c r="D197" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" t="s">
+        <v>61</v>
+      </c>
+      <c r="F197" t="s">
         <v>12</v>
       </c>
-      <c r="F181" t="s">
-        <v>82</v>
-      </c>
-      <c r="G181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>414</v>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>430</v>
+      </c>
+      <c r="C198" t="s">
+        <v>439</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" t="s">
+        <v>61</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>430</v>
+      </c>
+      <c r="C199" t="s">
+        <v>441</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" t="s">
+        <v>61</v>
+      </c>
+      <c r="F199" t="s">
+        <v>32</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>430</v>
+      </c>
+      <c r="C200" t="s">
+        <v>443</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" t="s">
+        <v>68</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>430</v>
+      </c>
+      <c r="C201" t="s">
+        <v>445</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
+        <v>44</v>
+      </c>
+      <c r="F201" t="s">
+        <v>44</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>447</v>
+      </c>
+      <c r="C202" t="s">
+        <v>448</v>
+      </c>
+      <c r="D202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" t="s">
+        <v>12</v>
+      </c>
+      <c r="F202" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>447</v>
+      </c>
+      <c r="C203" t="s">
+        <v>450</v>
+      </c>
+      <c r="D203" t="s">
+        <v>16</v>
+      </c>
+      <c r="E203" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" t="s">
+        <v>38</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>447</v>
+      </c>
+      <c r="C204" t="s">
+        <v>452</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" t="s">
+        <v>25</v>
+      </c>
+      <c r="F204" t="s">
+        <v>33</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>447</v>
+      </c>
+      <c r="C205" t="s">
+        <v>454</v>
+      </c>
+      <c r="D205" t="s">
+        <v>16</v>
+      </c>
+      <c r="E205" t="s">
+        <v>61</v>
+      </c>
+      <c r="F205" t="s">
+        <v>33</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>447</v>
+      </c>
+      <c r="C206" t="s">
+        <v>456</v>
+      </c>
+      <c r="D206" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206" t="s">
+        <v>22</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>447</v>
+      </c>
+      <c r="C207" t="s">
+        <v>96</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>28</v>
+      </c>
+      <c r="F207" t="s">
+        <v>38</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>447</v>
+      </c>
+      <c r="C208" t="s">
+        <v>459</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" t="s">
+        <v>22</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>447</v>
+      </c>
+      <c r="C209" t="s">
+        <v>461</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" t="s">
+        <v>17</v>
+      </c>
+      <c r="F209" t="s">
+        <v>25</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>463</v>
+      </c>
+      <c r="C210" t="s">
+        <v>464</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>44</v>
+      </c>
+      <c r="F210" t="s">
+        <v>38</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>463</v>
+      </c>
+      <c r="C211" t="s">
+        <v>466</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" t="s">
+        <v>38</v>
+      </c>
+      <c r="F211" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>463</v>
+      </c>
+      <c r="C212" t="s">
+        <v>468</v>
+      </c>
+      <c r="D212" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212" t="s">
+        <v>68</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>463</v>
+      </c>
+      <c r="C213" t="s">
+        <v>470</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>68</v>
+      </c>
+      <c r="F213" t="s">
+        <v>22</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>463</v>
+      </c>
+      <c r="C214" t="s">
+        <v>472</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
+        <v>61</v>
+      </c>
+      <c r="F214" t="s">
+        <v>61</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>463</v>
+      </c>
+      <c r="C215" t="s">
+        <v>474</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" t="s">
+        <v>57</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
+      <c r="H215" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>463</v>
+      </c>
+      <c r="C216" t="s">
+        <v>476</v>
+      </c>
+      <c r="D216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>28</v>
+      </c>
+      <c r="F216" t="s">
+        <v>25</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>463</v>
+      </c>
+      <c r="C217" t="s">
+        <v>478</v>
+      </c>
+      <c r="D217" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>33</v>
+      </c>
+      <c r="F217" t="s">
+        <v>29</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>480</v>
+      </c>
+      <c r="C218" t="s">
+        <v>481</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" t="s">
+        <v>33</v>
+      </c>
+      <c r="F218" t="s">
+        <v>44</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>480</v>
+      </c>
+      <c r="C219" t="s">
+        <v>483</v>
+      </c>
+      <c r="D219" t="s">
+        <v>10</v>
+      </c>
+      <c r="E219" t="s">
+        <v>44</v>
+      </c>
+      <c r="F219" t="s">
+        <v>28</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>480</v>
+      </c>
+      <c r="C220" t="s">
+        <v>485</v>
+      </c>
+      <c r="D220" t="s">
+        <v>20</v>
+      </c>
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" t="s">
+        <v>61</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>480</v>
+      </c>
+      <c r="C221" t="s">
+        <v>487</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
+        <v>17</v>
+      </c>
+      <c r="F221" t="s">
+        <v>38</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>480</v>
+      </c>
+      <c r="C222" t="s">
+        <v>489</v>
+      </c>
+      <c r="D222" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222" t="s">
+        <v>25</v>
+      </c>
+      <c r="F222" t="s">
+        <v>25</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>480</v>
+      </c>
+      <c r="C223" t="s">
+        <v>491</v>
+      </c>
+      <c r="D223" t="s">
+        <v>10</v>
+      </c>
+      <c r="E223" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" t="s">
+        <v>33</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>480</v>
+      </c>
+      <c r="C224" t="s">
+        <v>493</v>
+      </c>
+      <c r="D224" t="s">
+        <v>10</v>
+      </c>
+      <c r="E224" t="s">
+        <v>25</v>
+      </c>
+      <c r="F224" t="s">
+        <v>22</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>480</v>
+      </c>
+      <c r="C225" t="s">
+        <v>495</v>
+      </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" t="s">
+        <v>28</v>
+      </c>
+      <c r="F225" t="s">
+        <v>25</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
